--- a/E1_refereestats.xlsx
+++ b/E1_refereestats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D478C082-0074-403C-9B84-6E680D0B7EB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF4621-B693-45B6-873C-B25A157290C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E53"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +781,7 @@
       <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>30</v>
       </c>
       <c r="D2" s="1">
@@ -809,7 +809,7 @@
         <v>41.4</v>
       </c>
       <c r="L2" s="1">
-        <v>27.1</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
       <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>29</v>
       </c>
       <c r="D3" s="1">
@@ -847,7 +847,7 @@
         <v>40.862068965517238</v>
       </c>
       <c r="L3" s="1">
-        <v>24.103448275862068</v>
+        <v>30.241379310344829</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
       <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>28</v>
       </c>
       <c r="D4" s="1">
@@ -885,7 +885,7 @@
         <v>41.535714285714285</v>
       </c>
       <c r="L4" s="1">
-        <v>22.607142857142858</v>
+        <v>37.892857142857146</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
       <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>25</v>
       </c>
       <c r="D5" s="1">
@@ -923,7 +923,7 @@
         <v>38.119999999999997</v>
       </c>
       <c r="L5" s="1">
-        <v>31.72</v>
+        <v>35.36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>24</v>
       </c>
       <c r="D6" s="1">
@@ -961,7 +961,7 @@
         <v>35.416666666666664</v>
       </c>
       <c r="L6" s="1">
-        <v>27.916666666666668</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
       <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>24</v>
       </c>
       <c r="D7" s="1">
@@ -999,7 +999,7 @@
         <v>42.041666666666664</v>
       </c>
       <c r="L7" s="1">
-        <v>26.75</v>
+        <v>40.583333333333336</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>23</v>
       </c>
       <c r="D8" s="1">
@@ -1037,7 +1037,7 @@
         <v>37.217391304347828</v>
       </c>
       <c r="L8" s="1">
-        <v>23.043478260869566</v>
+        <v>34.434782608695649</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
       <c r="B9" t="s">
         <v>70</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>23</v>
       </c>
       <c r="D9" s="1">
@@ -1075,7 +1075,7 @@
         <v>36.130434782608695</v>
       </c>
       <c r="L9" s="1">
-        <v>24.086956521739129</v>
+        <v>35.652173913043477</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
       <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>21</v>
       </c>
       <c r="D10" s="1">
@@ -1113,7 +1113,7 @@
         <v>38</v>
       </c>
       <c r="L10" s="1">
-        <v>27.476190476190474</v>
+        <v>37.047619047619051</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
       <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>19</v>
       </c>
       <c r="D11" s="1">
@@ -1151,7 +1151,7 @@
         <v>37.631578947368418</v>
       </c>
       <c r="L11" s="1">
-        <v>23.05263157894737</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
       <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>18</v>
       </c>
       <c r="D12" s="1">
@@ -1189,7 +1189,7 @@
         <v>45.888888888888886</v>
       </c>
       <c r="L12" s="1">
-        <v>29.944444444444443</v>
+        <v>41.777777777777779</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
       <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>18</v>
       </c>
       <c r="D13" s="1">
@@ -1227,7 +1227,7 @@
         <v>56.222222222222221</v>
       </c>
       <c r="L13" s="1">
-        <v>27.388888888888889</v>
+        <v>30.388888888888889</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
       <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>17</v>
       </c>
       <c r="D14" s="1">
@@ -1265,7 +1265,7 @@
         <v>42.823529411764703</v>
       </c>
       <c r="L14" s="1">
-        <v>24.294117647058822</v>
+        <v>40.588235294117645</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>17</v>
       </c>
       <c r="D15" s="1">
@@ -1303,7 +1303,7 @@
         <v>38.294117647058826</v>
       </c>
       <c r="L15" s="1">
-        <v>25.764705882352942</v>
+        <v>31.352941176470587</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       <c r="B16" t="s">
         <v>77</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>17</v>
       </c>
       <c r="D16" s="1">
@@ -1341,7 +1341,7 @@
         <v>43.294117647058826</v>
       </c>
       <c r="L16" s="1">
-        <v>27.176470588235293</v>
+        <v>41.176470588235297</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
       <c r="B17" t="s">
         <v>78</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>17</v>
       </c>
       <c r="D17" s="1">
@@ -1379,7 +1379,7 @@
         <v>52.941176470588232</v>
       </c>
       <c r="L17" s="1">
-        <v>35.470588235294116</v>
+        <v>40.941176470588232</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
       <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
@@ -1417,7 +1417,7 @@
         <v>33.0625</v>
       </c>
       <c r="L18" s="1">
-        <v>28.3125</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
       <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="1">
@@ -1455,7 +1455,7 @@
         <v>39.071428571428569</v>
       </c>
       <c r="L19" s="1">
-        <v>38.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
       <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>13</v>
       </c>
       <c r="D20" s="1">
@@ -1493,7 +1493,7 @@
         <v>49.53846153846154</v>
       </c>
       <c r="L20" s="1">
-        <v>31.076923076923077</v>
+        <v>41.46153846153846</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
       <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>12</v>
       </c>
       <c r="D21" s="1">
@@ -1531,7 +1531,7 @@
         <v>32.083333333333336</v>
       </c>
       <c r="L21" s="1">
-        <v>23.25</v>
+        <v>38.416666666666664</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
       <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>12</v>
       </c>
       <c r="D22" s="1">
@@ -1569,7 +1569,7 @@
         <v>41.25</v>
       </c>
       <c r="L22" s="1">
-        <v>25.333333333333332</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
       <c r="B23" t="s">
         <v>84</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>12</v>
       </c>
       <c r="D23" s="1">
@@ -1617,7 +1617,7 @@
       <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>11</v>
       </c>
       <c r="D24" s="1">
@@ -1645,7 +1645,7 @@
         <v>48.18181818181818</v>
       </c>
       <c r="L24" s="1">
-        <v>39.272727272727273</v>
+        <v>46.363636363636367</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
       <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>11</v>
       </c>
       <c r="D25" s="1">
@@ -1683,7 +1683,7 @@
         <v>36.727272727272727</v>
       </c>
       <c r="L25" s="1">
-        <v>26.181818181818183</v>
+        <v>27.818181818181817</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
       <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>11</v>
       </c>
       <c r="D26" s="1">
@@ -1721,7 +1721,7 @@
         <v>43.727272727272727</v>
       </c>
       <c r="L26" s="1">
-        <v>23.454545454545453</v>
+        <v>37.454545454545453</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
       <c r="B27" t="s">
         <v>88</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>10</v>
       </c>
       <c r="D27" s="1">
@@ -1759,7 +1759,7 @@
         <v>49.3</v>
       </c>
       <c r="L27" s="1">
-        <v>26.4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
       <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>10</v>
       </c>
       <c r="D28" s="1">
@@ -1797,7 +1797,7 @@
         <v>32.9</v>
       </c>
       <c r="L28" s="1">
-        <v>22.4</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
       <c r="B29" t="s">
         <v>90</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>9</v>
       </c>
       <c r="D29" s="1">
@@ -1835,7 +1835,7 @@
         <v>34.333333333333336</v>
       </c>
       <c r="L29" s="1">
-        <v>21.666666666666668</v>
+        <v>31.333333333333332</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
       <c r="B30" t="s">
         <v>91</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>6</v>
       </c>
       <c r="D30" s="1">
@@ -1873,7 +1873,7 @@
         <v>36</v>
       </c>
       <c r="L30" s="1">
-        <v>14.166666666666666</v>
+        <v>25.666666666666668</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
       <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>6</v>
       </c>
       <c r="D31" s="1">
@@ -1921,7 +1921,7 @@
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>5</v>
       </c>
       <c r="D32" s="1">
@@ -1949,7 +1949,7 @@
         <v>48.4</v>
       </c>
       <c r="L32" s="1">
-        <v>14</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
       <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>5</v>
       </c>
       <c r="D33" s="1">
@@ -1987,7 +1987,7 @@
         <v>32</v>
       </c>
       <c r="L33" s="1">
-        <v>23</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
       <c r="B34" t="s">
         <v>95</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>5</v>
       </c>
       <c r="D34" s="1">
@@ -2035,7 +2035,7 @@
       <c r="B35" t="s">
         <v>96</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>5</v>
       </c>
       <c r="D35" s="1">
@@ -2073,7 +2073,7 @@
       <c r="B36" t="s">
         <v>97</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="1">
@@ -2111,7 +2111,7 @@
       <c r="B37" t="s">
         <v>98</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
@@ -2149,7 +2149,7 @@
       <c r="B38" t="s">
         <v>99</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1">
@@ -2187,7 +2187,7 @@
       <c r="B39" t="s">
         <v>100</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="1">
@@ -2215,7 +2215,7 @@
         <v>25</v>
       </c>
       <c r="L39" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
       <c r="B40" t="s">
         <v>101</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" s="1">
@@ -2253,7 +2253,7 @@
         <v>38</v>
       </c>
       <c r="L40" s="1">
-        <v>8.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
       <c r="B41" t="s">
         <v>102</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>2</v>
       </c>
       <c r="D41" s="1">
@@ -2291,7 +2291,7 @@
         <v>15.5</v>
       </c>
       <c r="L41" s="1">
-        <v>15.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
       <c r="B42" t="s">
         <v>103</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>2</v>
       </c>
       <c r="D42" s="1">
@@ -2339,7 +2339,7 @@
       <c r="B43" t="s">
         <v>104</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>2</v>
       </c>
       <c r="D43" s="1">
@@ -2377,7 +2377,7 @@
       <c r="B44" t="s">
         <v>105</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1">
@@ -2415,7 +2415,7 @@
       <c r="B45" t="s">
         <v>106</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1">
@@ -2453,7 +2453,7 @@
       <c r="B46" t="s">
         <v>107</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1">
@@ -2491,7 +2491,7 @@
       <c r="B47" t="s">
         <v>108</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1">
@@ -2529,7 +2529,7 @@
       <c r="B48" t="s">
         <v>109</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1">
@@ -2567,7 +2567,7 @@
       <c r="B49" t="s">
         <v>110</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1">
@@ -2605,7 +2605,7 @@
       <c r="B50" t="s">
         <v>111</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1">
@@ -2643,7 +2643,7 @@
       <c r="B51" t="s">
         <v>112</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1">
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2681,34 +2681,34 @@
       <c r="B52" t="s">
         <v>113</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>80</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>80</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>1200</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>1200</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>1200</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>1200</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>55</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="1">
         <v>37</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="1">
         <v>37</v>
       </c>
     </row>
@@ -2719,36 +2719,72 @@
       <c r="B53" t="s">
         <v>114</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>1</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>50</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>50</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>400</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>400</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="1">
         <v>600</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="1">
         <v>600</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1">
         <v>14</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="1">
         <v>3</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="1">
         <v>3</v>
       </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/E1_refereestats.xlsx
+++ b/E1_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Referee</t>
   </si>
@@ -131,82 +131,100 @@
     <t>26</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>John Busby</t>
+  </si>
+  <si>
     <t>Matt Donohue</t>
   </si>
   <si>
-    <t>John Busby</t>
+    <t>Robert Madley</t>
   </si>
   <si>
     <t>Oliver Langford</t>
   </si>
   <si>
+    <t>Gavin Ward</t>
+  </si>
+  <si>
     <t>Leigh Doughty</t>
   </si>
   <si>
+    <t>Anthony Backhouse</t>
+  </si>
+  <si>
+    <t>Tom Nield</t>
+  </si>
+  <si>
+    <t>Stephen Martin</t>
+  </si>
+  <si>
+    <t>Andrew Kitchen</t>
+  </si>
+  <si>
+    <t>David Webb</t>
+  </si>
+  <si>
     <t>Joshua Smith</t>
   </si>
   <si>
-    <t>Robert Madley</t>
-  </si>
-  <si>
-    <t>Anthony Backhouse</t>
-  </si>
-  <si>
-    <t>Tom Nield</t>
-  </si>
-  <si>
-    <t>Andrew Kitchen</t>
-  </si>
-  <si>
-    <t>David Webb</t>
-  </si>
-  <si>
-    <t>Gavin Ward</t>
+    <t>Ben Toner</t>
+  </si>
+  <si>
+    <t>Andrew Davies</t>
+  </si>
+  <si>
+    <t>Dean Whitestone</t>
+  </si>
+  <si>
+    <t>James Bell</t>
+  </si>
+  <si>
+    <t>James Linington</t>
+  </si>
+  <si>
+    <t>Samuel Allison</t>
+  </si>
+  <si>
+    <t>Keith Stroud</t>
+  </si>
+  <si>
+    <t>Will Finnie</t>
+  </si>
+  <si>
+    <t>Andy Madley</t>
+  </si>
+  <si>
+    <t>Thomas Kirk</t>
+  </si>
+  <si>
+    <t>Darren Bond</t>
+  </si>
+  <si>
+    <t>Peter Bankes</t>
+  </si>
+  <si>
+    <t>Simon Hooper</t>
   </si>
   <si>
     <t>Tony Harrington</t>
   </si>
   <si>
-    <t>Simon Hooper</t>
-  </si>
-  <si>
-    <t>James Linington</t>
-  </si>
-  <si>
-    <t>Samuel Allison</t>
-  </si>
-  <si>
-    <t>Keith Stroud</t>
-  </si>
-  <si>
-    <t>Ben Toner</t>
-  </si>
-  <si>
     <t>John Brooks</t>
   </si>
   <si>
-    <t>Dean Whitestone</t>
-  </si>
-  <si>
-    <t>Will Finnie</t>
-  </si>
-  <si>
-    <t>Andrew Davies</t>
-  </si>
-  <si>
-    <t>Stephen Martin</t>
-  </si>
-  <si>
-    <t>Andy Madley</t>
-  </si>
-  <si>
-    <t>Peter Bankes</t>
-  </si>
-  <si>
-    <t>James Bell</t>
+    <t>Craig Pawson</t>
   </si>
 </sst>
 </file>
@@ -304,7 +322,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
         <v>32.0</v>
@@ -348,43 +366,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
-        <v>280.0</v>
+        <v>245.0</v>
       </c>
       <c r="E3" t="n">
-        <v>70.0</v>
+        <v>49.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5425.0</v>
+        <v>2850.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1356.25</v>
+        <v>570.0</v>
       </c>
       <c r="H3" t="n">
-        <v>5675.0</v>
+        <v>1900.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1418.75</v>
+        <v>380.0</v>
       </c>
       <c r="J3" t="n">
-        <v>24.25</v>
+        <v>48.6</v>
       </c>
       <c r="K3" t="n">
-        <v>36.75</v>
+        <v>47.2</v>
       </c>
       <c r="L3" t="n">
-        <v>28.0</v>
+        <v>41.6</v>
       </c>
       <c r="M3" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.772277227722772</v>
+        <v>2.168141592920354</v>
       </c>
     </row>
     <row r="4">
@@ -392,43 +410,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" t="n">
-        <v>155.0</v>
+        <v>320.0</v>
       </c>
       <c r="E4" t="n">
-        <v>51.666666666666664</v>
+        <v>64.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2150.0</v>
+        <v>5825.0</v>
       </c>
       <c r="G4" t="n">
-        <v>716.6666666666666</v>
+        <v>1165.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1300.0</v>
+        <v>6075.0</v>
       </c>
       <c r="I4" t="n">
-        <v>433.3333333333333</v>
+        <v>1215.0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.666666666666664</v>
+        <v>19.8</v>
       </c>
       <c r="K4" t="n">
-        <v>53.666666666666664</v>
+        <v>37.6</v>
       </c>
       <c r="L4" t="n">
-        <v>45.0</v>
+        <v>22.8</v>
       </c>
       <c r="M4" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1527777777777777</v>
+        <v>2.4242424242424243</v>
       </c>
     </row>
     <row r="5">
@@ -436,43 +454,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
         <v>130.0</v>
       </c>
       <c r="E5" t="n">
-        <v>43.333333333333336</v>
+        <v>32.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1100.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G5" t="n">
-        <v>366.6666666666667</v>
+        <v>300.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1500.0</v>
+        <v>900.0</v>
       </c>
       <c r="I5" t="n">
-        <v>500.0</v>
+        <v>225.0</v>
       </c>
       <c r="J5" t="n">
-        <v>44.666666666666664</v>
+        <v>36.0</v>
       </c>
       <c r="K5" t="n">
-        <v>14.0</v>
+        <v>31.75</v>
       </c>
       <c r="L5" t="n">
-        <v>14.0</v>
+        <v>31.5</v>
       </c>
       <c r="M5" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5476190476190477</v>
+        <v>1.5294117647058822</v>
       </c>
     </row>
     <row r="6">
@@ -480,43 +498,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="n">
-        <v>100.0</v>
+        <v>180.0</v>
       </c>
       <c r="E6" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1200.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G6" t="n">
-        <v>600.0</v>
+        <v>425.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1400.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I6" t="n">
-        <v>700.0</v>
+        <v>525.0</v>
       </c>
       <c r="J6" t="n">
-        <v>26.0</v>
+        <v>38.75</v>
       </c>
       <c r="K6" t="n">
-        <v>51.5</v>
+        <v>16.5</v>
       </c>
       <c r="L6" t="n">
-        <v>26.0</v>
+        <v>15.75</v>
       </c>
       <c r="M6" t="n">
         <v>26.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8867924528301887</v>
+        <v>1.7307692307692308</v>
       </c>
     </row>
     <row r="7">
@@ -524,43 +542,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7" t="n">
-        <v>115.0</v>
+        <v>135.0</v>
       </c>
       <c r="E7" t="n">
-        <v>57.5</v>
+        <v>33.75</v>
       </c>
       <c r="F7" t="n">
-        <v>1500.0</v>
+        <v>950.0</v>
       </c>
       <c r="G7" t="n">
-        <v>750.0</v>
+        <v>237.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1150.0</v>
+        <v>500.0</v>
       </c>
       <c r="I7" t="n">
-        <v>575.0</v>
+        <v>125.0</v>
       </c>
       <c r="J7" t="n">
-        <v>19.0</v>
+        <v>52.75</v>
       </c>
       <c r="K7" t="n">
-        <v>40.5</v>
+        <v>68.0</v>
       </c>
       <c r="L7" t="n">
-        <v>19.0</v>
+        <v>49.5</v>
       </c>
       <c r="M7" t="n">
         <v>26.0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.2115384615384617</v>
+        <v>1.2616822429906542</v>
       </c>
     </row>
     <row r="8">
@@ -568,43 +586,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8" t="n">
-        <v>90.0</v>
+        <v>220.0</v>
       </c>
       <c r="E8" t="n">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G8" t="n">
-        <v>500.0</v>
+        <v>750.0</v>
       </c>
       <c r="H8" t="n">
-        <v>900.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I8" t="n">
-        <v>450.0</v>
+        <v>800.0</v>
       </c>
       <c r="J8" t="n">
-        <v>20.0</v>
+        <v>25.25</v>
       </c>
       <c r="K8" t="n">
-        <v>37.0</v>
+        <v>36.75</v>
       </c>
       <c r="L8" t="n">
-        <v>20.0</v>
+        <v>21.5</v>
       </c>
       <c r="M8" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.142857142857143</v>
+        <v>2.2916666666666665</v>
       </c>
     </row>
     <row r="9">
@@ -612,43 +630,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F9" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>266.6666666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>333.3333333333333</v>
+      </c>
+      <c r="J9" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>27.333333333333332</v>
+      </c>
+      <c r="M9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N9" t="n">
         <v>2.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.4242424242424243</v>
       </c>
     </row>
     <row r="10">
@@ -656,43 +674,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>60.0</v>
+        <v>90.0</v>
       </c>
       <c r="E10" t="n">
         <v>30.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="I10" t="n">
-        <v>300.0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>38.5</v>
+        <v>44.0</v>
       </c>
       <c r="K10" t="n">
-        <v>16.5</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="L10" t="n">
-        <v>55.0</v>
+        <v>45.333333333333336</v>
       </c>
       <c r="M10" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1320754716981132</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11">
@@ -700,43 +718,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" t="n">
-        <v>130.0</v>
+        <v>210.0</v>
       </c>
       <c r="E11" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="F11" t="n">
-        <v>2100.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1050.0</v>
+        <v>1200.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>4200.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>1400.0</v>
       </c>
       <c r="J11" t="n">
-        <v>69.5</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="K11" t="n">
-        <v>52.0</v>
+        <v>10.0</v>
       </c>
       <c r="L11" t="n">
-        <v>52.0</v>
+        <v>10.0</v>
       </c>
       <c r="M11" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.888888888888889</v>
+        <v>2.4705882352941178</v>
       </c>
     </row>
     <row r="12">
@@ -744,43 +762,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>70.0</v>
+        <v>150.0</v>
       </c>
       <c r="E12" t="n">
-        <v>35.0</v>
+        <v>50.0</v>
       </c>
       <c r="F12" t="n">
-        <v>600.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G12" t="n">
-        <v>300.0</v>
+        <v>700.0</v>
       </c>
       <c r="H12" t="n">
-        <v>500.0</v>
+        <v>100.0</v>
       </c>
       <c r="I12" t="n">
-        <v>250.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J12" t="n">
-        <v>19.5</v>
+        <v>59.666666666666664</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="L12" t="n">
-        <v>19.5</v>
+        <v>48.0</v>
       </c>
       <c r="M12" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.6666666666666667</v>
+        <v>2.1739130434782608</v>
       </c>
     </row>
     <row r="13">
@@ -788,43 +806,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="E13" t="n">
-        <v>37.5</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F13" t="n">
-        <v>550.0</v>
+        <v>800.0</v>
       </c>
       <c r="G13" t="n">
-        <v>275.0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>200.0</v>
+        <v>700.0</v>
       </c>
       <c r="I13" t="n">
-        <v>100.0</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="J13" t="n">
-        <v>54.5</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="K13" t="n">
-        <v>62.0</v>
+        <v>71.0</v>
       </c>
       <c r="L13" t="n">
-        <v>48.0</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="M13" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.5</v>
+        <v>1.8181818181818181</v>
       </c>
     </row>
     <row r="14">
@@ -832,43 +850,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>115.0</v>
+        <v>155.0</v>
       </c>
       <c r="E14" t="n">
-        <v>115.0</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="F14" t="n">
-        <v>3000.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G14" t="n">
-        <v>3000.0</v>
+        <v>600.0</v>
       </c>
       <c r="H14" t="n">
-        <v>2100.0</v>
+        <v>1150.0</v>
       </c>
       <c r="I14" t="n">
-        <v>2100.0</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>42.0</v>
+        <v>29.0</v>
       </c>
       <c r="K14" t="n">
-        <v>31.0</v>
+        <v>45.666666666666664</v>
       </c>
       <c r="L14" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="M14" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.3823529411764706</v>
+        <v>2.012987012987013</v>
       </c>
     </row>
     <row r="15">
@@ -876,43 +894,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" t="n">
-        <v>50.0</v>
+        <v>130.0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="F15" t="n">
-        <v>600.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G15" t="n">
-        <v>600.0</v>
+        <v>1050.0</v>
       </c>
       <c r="H15" t="n">
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I15" t="n">
         <v>600.0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.0</v>
+        <v>45.0</v>
       </c>
       <c r="K15" t="n">
-        <v>20.0</v>
+        <v>72.0</v>
       </c>
       <c r="L15" t="n">
-        <v>9.0</v>
+        <v>45.0</v>
       </c>
       <c r="M15" t="n">
         <v>23.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1739130434782608</v>
+        <v>2.765957446808511</v>
       </c>
     </row>
     <row r="16">
@@ -920,43 +938,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="E16" t="n">
         <v>50.0</v>
       </c>
       <c r="F16" t="n">
-        <v>600.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G16" t="n">
-        <v>600.0</v>
+        <v>700.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.0</v>
+        <v>38.5</v>
       </c>
       <c r="K16" t="n">
-        <v>86.0</v>
+        <v>54.5</v>
       </c>
       <c r="L16" t="n">
-        <v>52.0</v>
+        <v>38.5</v>
       </c>
       <c r="M16" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.9411764705882355</v>
+        <v>2.3255813953488373</v>
       </c>
     </row>
     <row r="17">
@@ -964,43 +982,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="E17" t="n">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="F17" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="G17" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="H17" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="I17" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="J17" t="n">
-        <v>78.0</v>
+        <v>12.5</v>
       </c>
       <c r="K17" t="n">
-        <v>44.0</v>
+        <v>57.5</v>
       </c>
       <c r="L17" t="n">
-        <v>44.0</v>
+        <v>52.0</v>
       </c>
       <c r="M17" t="n">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.4285714285714286</v>
+        <v>1.3513513513513513</v>
       </c>
     </row>
     <row r="18">
@@ -1008,43 +1026,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18" t="n">
-        <v>65.0</v>
+        <v>180.0</v>
       </c>
       <c r="E18" t="n">
-        <v>65.0</v>
+        <v>90.0</v>
       </c>
       <c r="F18" t="n">
-        <v>900.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G18" t="n">
-        <v>900.0</v>
+        <v>1800.0</v>
       </c>
       <c r="H18" t="n">
-        <v>800.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I18" t="n">
         <v>800.0</v>
       </c>
       <c r="J18" t="n">
-        <v>48.0</v>
+        <v>45.0</v>
       </c>
       <c r="K18" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="L18" t="n">
-        <v>22.0</v>
+        <v>41.0</v>
       </c>
       <c r="M18" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2413793103448274</v>
+        <v>3.9130434782608696</v>
       </c>
     </row>
     <row r="19">
@@ -1052,7 +1070,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -1076,19 +1094,19 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.0</v>
+        <v>52.0</v>
       </c>
       <c r="K19" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="L19" t="n">
-        <v>63.0</v>
+        <v>52.0</v>
       </c>
       <c r="M19" t="n">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.272727272727273</v>
+        <v>2.9411764705882355</v>
       </c>
     </row>
     <row r="20">
@@ -1096,43 +1114,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
       </c>
       <c r="D20" t="n">
-        <v>80.0</v>
+        <v>40.0</v>
       </c>
       <c r="E20" t="n">
-        <v>80.0</v>
+        <v>40.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1600.0</v>
+        <v>300.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1600.0</v>
+        <v>300.0</v>
       </c>
       <c r="H20" t="n">
-        <v>700.0</v>
+        <v>300.0</v>
       </c>
       <c r="I20" t="n">
-        <v>700.0</v>
+        <v>300.0</v>
       </c>
       <c r="J20" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="M20" t="n">
         <v>28.0</v>
       </c>
-      <c r="K20" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>26.0</v>
-      </c>
       <c r="N20" t="n">
-        <v>3.076923076923077</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="21">
@@ -1140,43 +1158,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>10.0</v>
+        <v>65.0</v>
       </c>
       <c r="E21" t="n">
-        <v>10.0</v>
+        <v>65.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="K21" t="n">
-        <v>79.0</v>
+        <v>22.0</v>
       </c>
       <c r="L21" t="n">
-        <v>79.0</v>
+        <v>22.0</v>
       </c>
       <c r="M21" t="n">
-        <v>11.0</v>
+        <v>29.0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9090909090909091</v>
+        <v>2.2413793103448274</v>
       </c>
     </row>
     <row r="22">
@@ -1184,7 +1202,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -1228,43 +1246,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
       </c>
       <c r="D23" t="n">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
       <c r="E23" t="n">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1200.0</v>
+        <v>600.0</v>
       </c>
       <c r="G23" t="n">
-        <v>1200.0</v>
+        <v>600.0</v>
       </c>
       <c r="H23" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="I23" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="J23" t="n">
-        <v>47.0</v>
+        <v>38.0</v>
       </c>
       <c r="K23" t="n">
-        <v>64.0</v>
+        <v>50.0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.0</v>
+        <v>38.0</v>
       </c>
       <c r="M23" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3333333333333335</v>
+        <v>2.0833333333333335</v>
       </c>
     </row>
     <row r="24">
@@ -1272,7 +1290,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -1284,31 +1302,31 @@
         <v>40.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="H24" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="I24" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
       <c r="K24" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="L24" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="M24" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.4285714285714286</v>
+        <v>1.7391304347826086</v>
       </c>
     </row>
     <row r="25">
@@ -1316,43 +1334,43 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
       </c>
       <c r="D25" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="E25" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="F25" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="G25" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="H25" t="n">
-        <v>400.0</v>
+        <v>1100.0</v>
       </c>
       <c r="I25" t="n">
-        <v>400.0</v>
+        <v>1100.0</v>
       </c>
       <c r="J25" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="K25" t="n">
-        <v>50.0</v>
+        <v>42.0</v>
       </c>
       <c r="L25" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="M25" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.0833333333333335</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
@@ -1360,7 +1378,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
@@ -1404,43 +1422,175 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
       </c>
       <c r="D27" t="n">
-        <v>95.0</v>
+        <v>50.0</v>
       </c>
       <c r="E27" t="n">
-        <v>95.0</v>
+        <v>50.0</v>
       </c>
       <c r="F27" t="n">
-        <v>1950.0</v>
+        <v>600.0</v>
       </c>
       <c r="G27" t="n">
-        <v>1950.0</v>
+        <v>600.0</v>
       </c>
       <c r="H27" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.1739130434782608</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.3823529411764706</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F29" t="n">
         <v>1600.0</v>
       </c>
-      <c r="I27" t="n">
+      <c r="G29" t="n">
         <v>1600.0</v>
       </c>
-      <c r="J27" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.523809523809524</v>
+      <c r="H29" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.076923076923077</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.7777777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/E1_refereestats.xlsx
+++ b/E1_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Referee</t>
   </si>
@@ -140,72 +140,114 @@
     <t>29</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>Robert Madley</t>
+  </si>
+  <si>
+    <t>David Webb</t>
+  </si>
+  <si>
+    <t>Gavin Ward</t>
+  </si>
+  <si>
+    <t>Matt Donohue</t>
+  </si>
+  <si>
+    <t>Oliver Langford</t>
+  </si>
+  <si>
+    <t>Tom Nield</t>
+  </si>
+  <si>
+    <t>Anthony Backhouse</t>
+  </si>
+  <si>
+    <t>Leigh Doughty</t>
+  </si>
+  <si>
     <t>John Busby</t>
   </si>
   <si>
-    <t>Matt Donohue</t>
-  </si>
-  <si>
-    <t>Robert Madley</t>
-  </si>
-  <si>
-    <t>Oliver Langford</t>
-  </si>
-  <si>
-    <t>Gavin Ward</t>
-  </si>
-  <si>
-    <t>Leigh Doughty</t>
-  </si>
-  <si>
-    <t>Anthony Backhouse</t>
-  </si>
-  <si>
-    <t>Tom Nield</t>
+    <t>Dean Whitestone</t>
+  </si>
+  <si>
+    <t>Andrew Kitchen</t>
   </si>
   <si>
     <t>Stephen Martin</t>
   </si>
   <si>
-    <t>Andrew Kitchen</t>
-  </si>
-  <si>
-    <t>David Webb</t>
-  </si>
-  <si>
     <t>Joshua Smith</t>
   </si>
   <si>
+    <t>James Bell</t>
+  </si>
+  <si>
+    <t>Samuel Allison</t>
+  </si>
+  <si>
+    <t>Andrew Davies</t>
+  </si>
+  <si>
+    <t>James Linington</t>
+  </si>
+  <si>
+    <t>Lewis Smith</t>
+  </si>
+  <si>
+    <t>Will Finnie</t>
+  </si>
+  <si>
+    <t>Michael Salisbury</t>
+  </si>
+  <si>
     <t>Ben Toner</t>
   </si>
   <si>
-    <t>Andrew Davies</t>
-  </si>
-  <si>
-    <t>Dean Whitestone</t>
-  </si>
-  <si>
-    <t>James Bell</t>
-  </si>
-  <si>
-    <t>James Linington</t>
-  </si>
-  <si>
-    <t>Samuel Allison</t>
+    <t>Simon Hooper</t>
+  </si>
+  <si>
+    <t>John Brooks</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
   </si>
   <si>
     <t>Keith Stroud</t>
   </si>
   <si>
-    <t>Will Finnie</t>
-  </si>
-  <si>
     <t>Andy Madley</t>
   </si>
   <si>
+    <t>Tim Robinson</t>
+  </si>
+  <si>
     <t>Thomas Kirk</t>
   </si>
   <si>
@@ -215,13 +257,19 @@
     <t>Peter Bankes</t>
   </si>
   <si>
-    <t>Simon Hooper</t>
-  </si>
-  <si>
     <t>Tony Harrington</t>
   </si>
   <si>
-    <t>John Brooks</t>
+    <t>Geoff Eltringham</t>
+  </si>
+  <si>
+    <t>David Coote</t>
+  </si>
+  <si>
+    <t>Sunny Gill</t>
+  </si>
+  <si>
+    <t>Stuart Attwell</t>
   </si>
   <si>
     <t>Craig Pawson</t>
@@ -322,43 +370,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1350.0</v>
+        <v>290.0</v>
       </c>
       <c r="E2" t="n">
-        <v>42.1875</v>
+        <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>13650.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G2" t="n">
-        <v>426.5625</v>
+        <v>190.0</v>
       </c>
       <c r="H2" t="n">
-        <v>11700.0</v>
+        <v>1900.0</v>
       </c>
       <c r="I2" t="n">
-        <v>365.625</v>
+        <v>190.0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.6875</v>
+        <v>54.2</v>
       </c>
       <c r="K2" t="n">
-        <v>34.71875</v>
+        <v>19.0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.34375</v>
+        <v>36.1</v>
       </c>
       <c r="M2" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8072289156626506</v>
+        <v>1.355140186915888</v>
       </c>
     </row>
     <row r="3">
@@ -366,43 +414,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D3" t="n">
-        <v>245.0</v>
+        <v>220.0</v>
       </c>
       <c r="E3" t="n">
-        <v>49.0</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="F3" t="n">
-        <v>2850.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G3" t="n">
-        <v>570.0</v>
+        <v>257.14285714285717</v>
       </c>
       <c r="H3" t="n">
-        <v>1900.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I3" t="n">
-        <v>380.0</v>
+        <v>185.71428571428572</v>
       </c>
       <c r="J3" t="n">
-        <v>48.6</v>
+        <v>42.285714285714285</v>
       </c>
       <c r="K3" t="n">
-        <v>47.2</v>
+        <v>45.285714285714285</v>
       </c>
       <c r="L3" t="n">
-        <v>41.6</v>
+        <v>39.714285714285715</v>
       </c>
       <c r="M3" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.168141592920354</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="4">
@@ -410,43 +458,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D4" t="n">
-        <v>320.0</v>
+        <v>230.0</v>
       </c>
       <c r="E4" t="n">
-        <v>64.0</v>
+        <v>32.857142857142854</v>
       </c>
       <c r="F4" t="n">
-        <v>5825.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1165.0</v>
+        <v>257.14285714285717</v>
       </c>
       <c r="H4" t="n">
-        <v>6075.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.0</v>
+        <v>185.71428571428572</v>
       </c>
       <c r="J4" t="n">
-        <v>19.8</v>
+        <v>40.285714285714285</v>
       </c>
       <c r="K4" t="n">
-        <v>37.6</v>
+        <v>59.714285714285715</v>
       </c>
       <c r="L4" t="n">
-        <v>22.8</v>
+        <v>30.857142857142858</v>
       </c>
       <c r="M4" t="n">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4242424242424243</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -454,43 +502,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D5" t="n">
-        <v>130.0</v>
+        <v>365.0</v>
       </c>
       <c r="E5" t="n">
-        <v>32.5</v>
+        <v>52.142857142857146</v>
       </c>
       <c r="F5" t="n">
-        <v>1200.0</v>
+        <v>4250.0</v>
       </c>
       <c r="G5" t="n">
-        <v>300.0</v>
+        <v>607.1428571428571</v>
       </c>
       <c r="H5" t="n">
-        <v>900.0</v>
+        <v>3400.0</v>
       </c>
       <c r="I5" t="n">
-        <v>225.0</v>
+        <v>485.7142857142857</v>
       </c>
       <c r="J5" t="n">
-        <v>36.0</v>
+        <v>54.42857142857143</v>
       </c>
       <c r="K5" t="n">
-        <v>31.75</v>
+        <v>50.857142857142854</v>
       </c>
       <c r="L5" t="n">
-        <v>31.5</v>
+        <v>37.57142857142857</v>
       </c>
       <c r="M5" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5294117647058822</v>
+        <v>2.1597633136094676</v>
       </c>
     </row>
     <row r="6">
@@ -498,43 +546,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" t="n">
-        <v>180.0</v>
+        <v>400.0</v>
       </c>
       <c r="E6" t="n">
-        <v>45.0</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="F6" t="n">
-        <v>1700.0</v>
+        <v>6125.0</v>
       </c>
       <c r="G6" t="n">
-        <v>425.0</v>
+        <v>875.0</v>
       </c>
       <c r="H6" t="n">
-        <v>2100.0</v>
+        <v>6675.0</v>
       </c>
       <c r="I6" t="n">
-        <v>525.0</v>
+        <v>953.5714285714286</v>
       </c>
       <c r="J6" t="n">
-        <v>38.75</v>
+        <v>26.857142857142858</v>
       </c>
       <c r="K6" t="n">
-        <v>16.5</v>
+        <v>31.142857142857142</v>
       </c>
       <c r="L6" t="n">
-        <v>15.75</v>
+        <v>20.571428571428573</v>
       </c>
       <c r="M6" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.7307692307692308</v>
+        <v>2.3391812865497075</v>
       </c>
     </row>
     <row r="7">
@@ -542,43 +590,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D7" t="n">
-        <v>135.0</v>
+        <v>260.0</v>
       </c>
       <c r="E7" t="n">
-        <v>33.75</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F7" t="n">
-        <v>950.0</v>
+        <v>2500.0</v>
       </c>
       <c r="G7" t="n">
-        <v>237.5</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>500.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I7" t="n">
-        <v>125.0</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>52.75</v>
+        <v>44.833333333333336</v>
       </c>
       <c r="K7" t="n">
-        <v>68.0</v>
+        <v>31.5</v>
       </c>
       <c r="L7" t="n">
-        <v>49.5</v>
+        <v>29.5</v>
       </c>
       <c r="M7" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.2616822429906542</v>
+        <v>1.6883116883116882</v>
       </c>
     </row>
     <row r="8">
@@ -586,43 +634,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="n">
-        <v>220.0</v>
+        <v>260.0</v>
       </c>
       <c r="E8" t="n">
-        <v>55.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F8" t="n">
-        <v>3000.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G8" t="n">
-        <v>750.0</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>3200.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I8" t="n">
-        <v>800.0</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>25.25</v>
+        <v>56.333333333333336</v>
       </c>
       <c r="K8" t="n">
-        <v>36.75</v>
+        <v>26.166666666666668</v>
       </c>
       <c r="L8" t="n">
-        <v>21.5</v>
+        <v>35.0</v>
       </c>
       <c r="M8" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.2916666666666665</v>
+        <v>1.6993464052287581</v>
       </c>
     </row>
     <row r="9">
@@ -630,43 +678,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" t="n">
-        <v>110.0</v>
+        <v>215.0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.666666666666664</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="F9" t="n">
-        <v>800.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G9" t="n">
-        <v>266.6666666666667</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1000.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I9" t="n">
-        <v>333.3333333333333</v>
+        <v>300.0</v>
       </c>
       <c r="J9" t="n">
-        <v>44.0</v>
+        <v>33.5</v>
       </c>
       <c r="K9" t="n">
-        <v>53.0</v>
+        <v>43.0</v>
       </c>
       <c r="L9" t="n">
-        <v>27.333333333333332</v>
+        <v>30.166666666666668</v>
       </c>
       <c r="M9" t="n">
         <v>18.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.0</v>
+        <v>1.9026548672566372</v>
       </c>
     </row>
     <row r="10">
@@ -674,43 +722,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D10" t="n">
-        <v>90.0</v>
+        <v>300.0</v>
       </c>
       <c r="E10" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="F10" t="n">
-        <v>200.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G10" t="n">
-        <v>66.66666666666667</v>
+        <v>600.0</v>
       </c>
       <c r="H10" t="n">
-        <v>800.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I10" t="n">
-        <v>266.6666666666667</v>
+        <v>583.3333333333334</v>
       </c>
       <c r="J10" t="n">
-        <v>44.0</v>
+        <v>33.166666666666664</v>
       </c>
       <c r="K10" t="n">
-        <v>19.666666666666668</v>
+        <v>48.666666666666664</v>
       </c>
       <c r="L10" t="n">
-        <v>45.333333333333336</v>
+        <v>30.666666666666668</v>
       </c>
       <c r="M10" t="n">
         <v>25.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.2</v>
+        <v>1.9867549668874172</v>
       </c>
     </row>
     <row r="11">
@@ -718,43 +766,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11" t="n">
-        <v>210.0</v>
+        <v>265.0</v>
       </c>
       <c r="E11" t="n">
-        <v>70.0</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="F11" t="n">
-        <v>3600.0</v>
+        <v>2850.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1200.0</v>
+        <v>475.0</v>
       </c>
       <c r="H11" t="n">
-        <v>4200.0</v>
+        <v>1900.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1400.0</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>24.333333333333332</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="K11" t="n">
-        <v>10.0</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="L11" t="n">
-        <v>10.0</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="M11" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.4705882352941178</v>
+        <v>2.0384615384615383</v>
       </c>
     </row>
     <row r="12">
@@ -762,43 +810,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12" t="n">
-        <v>150.0</v>
+        <v>230.0</v>
       </c>
       <c r="E12" t="n">
-        <v>50.0</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F12" t="n">
-        <v>2100.0</v>
+        <v>2200.0</v>
       </c>
       <c r="G12" t="n">
-        <v>700.0</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I12" t="n">
-        <v>33.333333333333336</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>59.666666666666664</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="K12" t="n">
-        <v>34.666666666666664</v>
+        <v>61.0</v>
       </c>
       <c r="L12" t="n">
-        <v>48.0</v>
+        <v>50.5</v>
       </c>
       <c r="M12" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.1739130434782608</v>
+        <v>1.7692307692307692</v>
       </c>
     </row>
     <row r="13">
@@ -806,43 +854,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0</v>
+        <v>275.0</v>
       </c>
       <c r="E13" t="n">
-        <v>33.333333333333336</v>
+        <v>55.0</v>
       </c>
       <c r="F13" t="n">
-        <v>800.0</v>
+        <v>3950.0</v>
       </c>
       <c r="G13" t="n">
-        <v>266.6666666666667</v>
+        <v>790.0</v>
       </c>
       <c r="H13" t="n">
-        <v>700.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I13" t="n">
-        <v>233.33333333333334</v>
+        <v>300.0</v>
       </c>
       <c r="J13" t="n">
-        <v>24.333333333333332</v>
+        <v>58.4</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0</v>
+        <v>46.4</v>
       </c>
       <c r="L13" t="n">
-        <v>24.333333333333332</v>
+        <v>44.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.8181818181818181</v>
+        <v>2.330508474576271</v>
       </c>
     </row>
     <row r="14">
@@ -850,43 +898,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D14" t="n">
-        <v>155.0</v>
+        <v>300.0</v>
       </c>
       <c r="E14" t="n">
-        <v>51.666666666666664</v>
+        <v>60.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1800.0</v>
+        <v>4500.0</v>
       </c>
       <c r="G14" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1150.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I14" t="n">
-        <v>383.3333333333333</v>
+        <v>1000.0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.0</v>
+        <v>29.6</v>
       </c>
       <c r="K14" t="n">
-        <v>45.666666666666664</v>
+        <v>14.0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
       <c r="M14" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.012987012987013</v>
+        <v>1.8867924528301887</v>
       </c>
     </row>
     <row r="15">
@@ -894,43 +942,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" t="n">
-        <v>130.0</v>
+        <v>265.0</v>
       </c>
       <c r="E15" t="n">
-        <v>65.0</v>
+        <v>53.0</v>
       </c>
       <c r="F15" t="n">
-        <v>2100.0</v>
+        <v>2800.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1050.0</v>
+        <v>560.0</v>
       </c>
       <c r="H15" t="n">
-        <v>1200.0</v>
+        <v>2750.0</v>
       </c>
       <c r="I15" t="n">
-        <v>600.0</v>
+        <v>550.0</v>
       </c>
       <c r="J15" t="n">
-        <v>45.0</v>
+        <v>23.8</v>
       </c>
       <c r="K15" t="n">
-        <v>72.0</v>
+        <v>35.6</v>
       </c>
       <c r="L15" t="n">
-        <v>45.0</v>
+        <v>23.8</v>
       </c>
       <c r="M15" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.765957446808511</v>
+        <v>2.1721311475409837</v>
       </c>
     </row>
     <row r="16">
@@ -938,43 +986,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.0</v>
+        <v>310.0</v>
       </c>
       <c r="E16" t="n">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1400.0</v>
+        <v>5000.0</v>
       </c>
       <c r="G16" t="n">
-        <v>700.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H16" t="n">
-        <v>800.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I16" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.5</v>
+        <v>33.4</v>
       </c>
       <c r="K16" t="n">
-        <v>54.5</v>
+        <v>45.4</v>
       </c>
       <c r="L16" t="n">
-        <v>38.5</v>
+        <v>31.8</v>
       </c>
       <c r="M16" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.3255813953488373</v>
+        <v>2.743362831858407</v>
       </c>
     </row>
     <row r="17">
@@ -982,43 +1030,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>50.0</v>
+        <v>220.0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.0</v>
+        <v>55.0</v>
       </c>
       <c r="F17" t="n">
-        <v>400.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G17" t="n">
-        <v>200.0</v>
+        <v>675.0</v>
       </c>
       <c r="H17" t="n">
-        <v>400.0</v>
+        <v>2900.0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.0</v>
+        <v>725.0</v>
       </c>
       <c r="J17" t="n">
-        <v>12.5</v>
+        <v>29.75</v>
       </c>
       <c r="K17" t="n">
-        <v>57.5</v>
+        <v>42.5</v>
       </c>
       <c r="L17" t="n">
-        <v>52.0</v>
+        <v>19.25</v>
       </c>
       <c r="M17" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.3513513513513513</v>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="18">
@@ -1026,43 +1074,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D18" t="n">
-        <v>180.0</v>
+        <v>150.0</v>
       </c>
       <c r="E18" t="n">
-        <v>90.0</v>
+        <v>37.5</v>
       </c>
       <c r="F18" t="n">
-        <v>3600.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1800.0</v>
+        <v>350.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1600.0</v>
+        <v>1100.0</v>
       </c>
       <c r="I18" t="n">
-        <v>800.0</v>
+        <v>275.0</v>
       </c>
       <c r="J18" t="n">
-        <v>45.0</v>
+        <v>19.25</v>
       </c>
       <c r="K18" t="n">
-        <v>43.0</v>
+        <v>49.5</v>
       </c>
       <c r="L18" t="n">
-        <v>41.0</v>
+        <v>41.5</v>
       </c>
       <c r="M18" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.9130434782608696</v>
+        <v>1.9736842105263157</v>
       </c>
     </row>
     <row r="19">
@@ -1070,43 +1118,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19" t="n">
-        <v>50.0</v>
+        <v>160.0</v>
       </c>
       <c r="E19" t="n">
-        <v>50.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F19" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="H19" t="n">
         <v>600.0</v>
       </c>
-      <c r="G19" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.0</v>
+        <v>55.333333333333336</v>
       </c>
       <c r="K19" t="n">
-        <v>86.0</v>
+        <v>54.0</v>
       </c>
       <c r="L19" t="n">
-        <v>52.0</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="M19" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.9411764705882355</v>
+        <v>2.5396825396825395</v>
       </c>
     </row>
     <row r="20">
@@ -1114,43 +1162,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D20" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="E20" t="n">
-        <v>40.0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="F20" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="G20" t="n">
-        <v>300.0</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="I20" t="n">
-        <v>300.0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="J20" t="n">
-        <v>78.0</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="K20" t="n">
-        <v>44.0</v>
+        <v>61.333333333333336</v>
       </c>
       <c r="L20" t="n">
-        <v>44.0</v>
+        <v>54.666666666666664</v>
       </c>
       <c r="M20" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.4285714285714286</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="21">
@@ -1158,43 +1206,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D21" t="n">
-        <v>65.0</v>
+        <v>150.0</v>
       </c>
       <c r="E21" t="n">
-        <v>65.0</v>
+        <v>50.0</v>
       </c>
       <c r="F21" t="n">
-        <v>900.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G21" t="n">
-        <v>900.0</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>800.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I21" t="n">
-        <v>800.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>48.0</v>
+        <v>20.0</v>
       </c>
       <c r="K21" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="L21" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="M21" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.2413793103448274</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="22">
@@ -1202,43 +1250,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="E22" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="F22" t="n">
         <v>400.0</v>
       </c>
       <c r="G22" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="H22" t="n">
-        <v>600.0</v>
+        <v>200.0</v>
       </c>
       <c r="I22" t="n">
-        <v>600.0</v>
+        <v>100.0</v>
       </c>
       <c r="J22" t="n">
-        <v>10.0</v>
+        <v>53.5</v>
       </c>
       <c r="K22" t="n">
-        <v>11.0</v>
+        <v>48.5</v>
       </c>
       <c r="L22" t="n">
-        <v>10.0</v>
+        <v>48.5</v>
       </c>
       <c r="M22" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.3043478260869565</v>
       </c>
     </row>
     <row r="23">
@@ -1246,43 +1294,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D23" t="n">
-        <v>50.0</v>
+        <v>130.0</v>
       </c>
       <c r="E23" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="F23" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="I23" t="n">
         <v>600.0</v>
       </c>
-      <c r="G23" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>400.0</v>
-      </c>
       <c r="J23" t="n">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="K23" t="n">
-        <v>50.0</v>
+        <v>72.0</v>
       </c>
       <c r="L23" t="n">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="M23" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.0833333333333335</v>
+        <v>2.765957446808511</v>
       </c>
     </row>
     <row r="24">
@@ -1290,43 +1338,43 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24" t="n">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="E24" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="F24" t="n">
-        <v>300.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G24" t="n">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="H24" t="n">
-        <v>300.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I24" t="n">
-        <v>300.0</v>
+        <v>500.0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.0</v>
+        <v>31.5</v>
       </c>
       <c r="K24" t="n">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="L24" t="n">
-        <v>17.0</v>
+        <v>18.5</v>
       </c>
       <c r="M24" t="n">
         <v>23.0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.7391304347826086</v>
+        <v>2.127659574468085</v>
       </c>
     </row>
     <row r="25">
@@ -1334,40 +1382,40 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.0</v>
+        <v>110.0</v>
       </c>
       <c r="E25" t="n">
-        <v>65.0</v>
+        <v>55.0</v>
       </c>
       <c r="F25" t="n">
-        <v>900.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G25" t="n">
         <v>900.0</v>
       </c>
       <c r="H25" t="n">
-        <v>1100.0</v>
+        <v>700.0</v>
       </c>
       <c r="I25" t="n">
-        <v>1100.0</v>
+        <v>350.0</v>
       </c>
       <c r="J25" t="n">
-        <v>39.0</v>
+        <v>27.5</v>
       </c>
       <c r="K25" t="n">
-        <v>42.0</v>
+        <v>38.5</v>
       </c>
       <c r="L25" t="n">
-        <v>39.0</v>
+        <v>27.5</v>
       </c>
       <c r="M25" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="N25" t="n">
         <v>2.5</v>
@@ -1378,43 +1426,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
       </c>
       <c r="D26" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="E26" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="F26" t="n">
-        <v>400.0</v>
+        <v>1350.0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.0</v>
+        <v>1350.0</v>
       </c>
       <c r="H26" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="I26" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="J26" t="n">
-        <v>47.0</v>
+        <v>40.0</v>
       </c>
       <c r="K26" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="L26" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="M26" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.125</v>
+        <v>2.34375</v>
       </c>
     </row>
     <row r="27">
@@ -1422,43 +1470,43 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
       </c>
       <c r="D27" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="E27" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="F27" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="G27" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="H27" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="I27" t="n">
-        <v>600.0</v>
+        <v>800.0</v>
       </c>
       <c r="J27" t="n">
-        <v>9.0</v>
+        <v>48.0</v>
       </c>
       <c r="K27" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="L27" t="n">
-        <v>9.0</v>
+        <v>22.0</v>
       </c>
       <c r="M27" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.1739130434782608</v>
+        <v>2.2413793103448274</v>
       </c>
     </row>
     <row r="28">
@@ -1466,43 +1514,43 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
       </c>
       <c r="D28" t="n">
-        <v>115.0</v>
+        <v>50.0</v>
       </c>
       <c r="E28" t="n">
-        <v>115.0</v>
+        <v>50.0</v>
       </c>
       <c r="F28" t="n">
-        <v>3000.0</v>
+        <v>600.0</v>
       </c>
       <c r="G28" t="n">
-        <v>3000.0</v>
+        <v>600.0</v>
       </c>
       <c r="H28" t="n">
-        <v>2100.0</v>
+        <v>400.0</v>
       </c>
       <c r="I28" t="n">
-        <v>2100.0</v>
+        <v>400.0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="K28" t="n">
-        <v>31.0</v>
+        <v>50.0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="M28" t="n">
-        <v>34.0</v>
+        <v>24.0</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3823529411764706</v>
+        <v>2.0833333333333335</v>
       </c>
     </row>
     <row r="29">
@@ -1510,43 +1558,43 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
       </c>
       <c r="D29" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="E29" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="F29" t="n">
-        <v>1600.0</v>
+        <v>900.0</v>
       </c>
       <c r="G29" t="n">
-        <v>1600.0</v>
+        <v>900.0</v>
       </c>
       <c r="H29" t="n">
-        <v>700.0</v>
+        <v>500.0</v>
       </c>
       <c r="I29" t="n">
-        <v>700.0</v>
+        <v>500.0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.0</v>
+        <v>46.0</v>
       </c>
       <c r="K29" t="n">
-        <v>48.0</v>
+        <v>39.0</v>
       </c>
       <c r="L29" t="n">
-        <v>28.0</v>
+        <v>39.0</v>
       </c>
       <c r="M29" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.076923076923077</v>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="30">
@@ -1554,42 +1602,394 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
       </c>
       <c r="D30" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.7391304347826086</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.3823529411764706</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.380952380952381</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.3043478260869565</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D38" t="n">
         <v>75.0</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E38" t="n">
         <v>75.0</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F38" t="n">
         <v>1350.0</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G38" t="n">
         <v>1350.0</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H38" t="n">
         <v>1100.0</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I38" t="n">
         <v>1100.0</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J38" t="n">
         <v>9.0</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K38" t="n">
         <v>35.0</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L38" t="n">
         <v>9.0</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M38" t="n">
         <v>27.0</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N38" t="n">
         <v>2.7777777777777777</v>
       </c>
     </row>

--- a/E1_refereestats.xlsx
+++ b/E1_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Referee</t>
   </si>
@@ -164,9 +164,21 @@
     <t>37</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>Oliver Langford</t>
+  </si>
+  <si>
+    <t>Tom Nield</t>
+  </si>
+  <si>
     <t>Robert Madley</t>
   </si>
   <si>
@@ -176,49 +188,46 @@
     <t>Gavin Ward</t>
   </si>
   <si>
+    <t>John Busby</t>
+  </si>
+  <si>
+    <t>Joshua Smith</t>
+  </si>
+  <si>
     <t>Matt Donohue</t>
   </si>
   <si>
-    <t>Oliver Langford</t>
-  </si>
-  <si>
-    <t>Tom Nield</t>
-  </si>
-  <si>
     <t>Anthony Backhouse</t>
   </si>
   <si>
     <t>Leigh Doughty</t>
   </si>
   <si>
-    <t>John Busby</t>
-  </si>
-  <si>
     <t>Dean Whitestone</t>
   </si>
   <si>
+    <t>James Bell</t>
+  </si>
+  <si>
+    <t>Samuel Allison</t>
+  </si>
+  <si>
+    <t>Andrew Davies</t>
+  </si>
+  <si>
     <t>Andrew Kitchen</t>
   </si>
   <si>
     <t>Stephen Martin</t>
   </si>
   <si>
-    <t>Joshua Smith</t>
-  </si>
-  <si>
-    <t>James Bell</t>
-  </si>
-  <si>
-    <t>Samuel Allison</t>
-  </si>
-  <si>
-    <t>Andrew Davies</t>
+    <t>Lewis Smith</t>
   </si>
   <si>
     <t>James Linington</t>
   </si>
   <si>
-    <t>Lewis Smith</t>
+    <t>Ben Toner</t>
   </si>
   <si>
     <t>Will Finnie</t>
@@ -227,7 +236,7 @@
     <t>Michael Salisbury</t>
   </si>
   <si>
-    <t>Ben Toner</t>
+    <t>Tim Robinson</t>
   </si>
   <si>
     <t>Simon Hooper</t>
@@ -245,9 +254,6 @@
     <t>Andy Madley</t>
   </si>
   <si>
-    <t>Tim Robinson</t>
-  </si>
-  <si>
     <t>Thomas Kirk</t>
   </si>
   <si>
@@ -266,7 +272,13 @@
     <t>David Coote</t>
   </si>
   <si>
+    <t>Thomas Bramall</t>
+  </si>
+  <si>
     <t>Sunny Gill</t>
+  </si>
+  <si>
+    <t>Darren England</t>
   </si>
   <si>
     <t>Stuart Attwell</t>
@@ -370,7 +382,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
         <v>10.0</v>
@@ -414,43 +426,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D3" t="n">
-        <v>220.0</v>
+        <v>350.0</v>
       </c>
       <c r="E3" t="n">
-        <v>31.428571428571427</v>
+        <v>38.888888888888886</v>
       </c>
       <c r="F3" t="n">
-        <v>1800.0</v>
+        <v>3100.0</v>
       </c>
       <c r="G3" t="n">
-        <v>257.14285714285717</v>
+        <v>344.44444444444446</v>
       </c>
       <c r="H3" t="n">
-        <v>1300.0</v>
+        <v>3100.0</v>
       </c>
       <c r="I3" t="n">
-        <v>185.71428571428572</v>
+        <v>344.44444444444446</v>
       </c>
       <c r="J3" t="n">
-        <v>42.285714285714285</v>
+        <v>40.77777777777778</v>
       </c>
       <c r="K3" t="n">
-        <v>45.285714285714285</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="L3" t="n">
-        <v>39.714285714285715</v>
+        <v>28.22222222222222</v>
       </c>
       <c r="M3" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5384615384615385</v>
+        <v>1.627906976744186</v>
       </c>
     </row>
     <row r="4">
@@ -458,43 +470,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D4" t="n">
-        <v>230.0</v>
+        <v>440.0</v>
       </c>
       <c r="E4" t="n">
-        <v>32.857142857142854</v>
+        <v>48.888888888888886</v>
       </c>
       <c r="F4" t="n">
-        <v>1800.0</v>
+        <v>5100.0</v>
       </c>
       <c r="G4" t="n">
-        <v>257.14285714285717</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>1300.0</v>
+        <v>4100.0</v>
       </c>
       <c r="I4" t="n">
-        <v>185.71428571428572</v>
+        <v>455.55555555555554</v>
       </c>
       <c r="J4" t="n">
-        <v>40.285714285714285</v>
+        <v>51.55555555555556</v>
       </c>
       <c r="K4" t="n">
-        <v>59.714285714285715</v>
+        <v>36.0</v>
       </c>
       <c r="L4" t="n">
-        <v>30.857142857142858</v>
+        <v>34.888888888888886</v>
       </c>
       <c r="M4" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.9047619047619047</v>
       </c>
     </row>
     <row r="5">
@@ -502,43 +514,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n">
-        <v>365.0</v>
+        <v>295.0</v>
       </c>
       <c r="E5" t="n">
-        <v>52.142857142857146</v>
+        <v>36.875</v>
       </c>
       <c r="F5" t="n">
-        <v>4250.0</v>
+        <v>2900.0</v>
       </c>
       <c r="G5" t="n">
-        <v>607.1428571428571</v>
+        <v>362.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3400.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I5" t="n">
-        <v>485.7142857142857</v>
+        <v>262.5</v>
       </c>
       <c r="J5" t="n">
-        <v>54.42857142857143</v>
+        <v>38.625</v>
       </c>
       <c r="K5" t="n">
-        <v>50.857142857142854</v>
+        <v>41.75</v>
       </c>
       <c r="L5" t="n">
-        <v>37.57142857142857</v>
+        <v>36.375</v>
       </c>
       <c r="M5" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.1597633136094676</v>
+        <v>1.755952380952381</v>
       </c>
     </row>
     <row r="6">
@@ -546,43 +558,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D6" t="n">
-        <v>400.0</v>
+        <v>230.0</v>
       </c>
       <c r="E6" t="n">
-        <v>57.142857142857146</v>
+        <v>28.75</v>
       </c>
       <c r="F6" t="n">
-        <v>6125.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G6" t="n">
-        <v>875.0</v>
+        <v>225.0</v>
       </c>
       <c r="H6" t="n">
-        <v>6675.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I6" t="n">
-        <v>953.5714285714286</v>
+        <v>162.5</v>
       </c>
       <c r="J6" t="n">
-        <v>26.857142857142858</v>
+        <v>35.25</v>
       </c>
       <c r="K6" t="n">
-        <v>31.142857142857142</v>
+        <v>52.25</v>
       </c>
       <c r="L6" t="n">
-        <v>20.571428571428573</v>
+        <v>27.0</v>
       </c>
       <c r="M6" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.3391812865497075</v>
+        <v>1.4024390243902438</v>
       </c>
     </row>
     <row r="7">
@@ -590,43 +602,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" t="n">
-        <v>260.0</v>
+        <v>405.0</v>
       </c>
       <c r="E7" t="n">
-        <v>43.333333333333336</v>
+        <v>50.625</v>
       </c>
       <c r="F7" t="n">
-        <v>2500.0</v>
+        <v>4650.0</v>
       </c>
       <c r="G7" t="n">
-        <v>416.6666666666667</v>
+        <v>581.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2500.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I7" t="n">
-        <v>416.6666666666667</v>
+        <v>475.0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.833333333333336</v>
+        <v>50.25</v>
       </c>
       <c r="K7" t="n">
-        <v>31.5</v>
+        <v>55.5</v>
       </c>
       <c r="L7" t="n">
-        <v>29.5</v>
+        <v>35.5</v>
       </c>
       <c r="M7" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.6883116883116882</v>
+        <v>2.0454545454545454</v>
       </c>
     </row>
     <row r="8">
@@ -634,43 +646,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D8" t="n">
-        <v>260.0</v>
+        <v>360.0</v>
       </c>
       <c r="E8" t="n">
-        <v>43.333333333333336</v>
+        <v>45.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2600.0</v>
+        <v>3750.0</v>
       </c>
       <c r="G8" t="n">
-        <v>433.3333333333333</v>
+        <v>468.75</v>
       </c>
       <c r="H8" t="n">
-        <v>2200.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I8" t="n">
-        <v>366.6666666666667</v>
+        <v>312.5</v>
       </c>
       <c r="J8" t="n">
-        <v>56.333333333333336</v>
+        <v>46.25</v>
       </c>
       <c r="K8" t="n">
-        <v>26.166666666666668</v>
+        <v>43.75</v>
       </c>
       <c r="L8" t="n">
-        <v>35.0</v>
+        <v>48.625</v>
       </c>
       <c r="M8" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6993464052287581</v>
+        <v>2.0338983050847457</v>
       </c>
     </row>
     <row r="9">
@@ -678,43 +690,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D9" t="n">
-        <v>215.0</v>
+        <v>435.0</v>
       </c>
       <c r="E9" t="n">
-        <v>35.833333333333336</v>
+        <v>54.375</v>
       </c>
       <c r="F9" t="n">
-        <v>1900.0</v>
+        <v>5200.0</v>
       </c>
       <c r="G9" t="n">
-        <v>316.6666666666667</v>
+        <v>650.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1800.0</v>
+        <v>4150.0</v>
       </c>
       <c r="I9" t="n">
-        <v>300.0</v>
+        <v>518.75</v>
       </c>
       <c r="J9" t="n">
-        <v>33.5</v>
+        <v>33.625</v>
       </c>
       <c r="K9" t="n">
-        <v>43.0</v>
+        <v>36.375</v>
       </c>
       <c r="L9" t="n">
-        <v>30.166666666666668</v>
+        <v>29.0</v>
       </c>
       <c r="M9" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9026548672566372</v>
+        <v>2.265625</v>
       </c>
     </row>
     <row r="10">
@@ -722,43 +734,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D10" t="n">
-        <v>300.0</v>
+        <v>430.0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.0</v>
+        <v>53.75</v>
       </c>
       <c r="F10" t="n">
-        <v>3600.0</v>
+        <v>6325.0</v>
       </c>
       <c r="G10" t="n">
-        <v>600.0</v>
+        <v>790.625</v>
       </c>
       <c r="H10" t="n">
-        <v>3500.0</v>
+        <v>6875.0</v>
       </c>
       <c r="I10" t="n">
-        <v>583.3333333333334</v>
+        <v>859.375</v>
       </c>
       <c r="J10" t="n">
-        <v>33.166666666666664</v>
+        <v>28.875</v>
       </c>
       <c r="K10" t="n">
-        <v>48.666666666666664</v>
+        <v>38.0</v>
       </c>
       <c r="L10" t="n">
-        <v>30.666666666666668</v>
+        <v>23.375</v>
       </c>
       <c r="M10" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9867549668874172</v>
+        <v>2.193877551020408</v>
       </c>
     </row>
     <row r="11">
@@ -766,43 +778,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="n">
         <v>265.0</v>
       </c>
       <c r="E11" t="n">
-        <v>44.166666666666664</v>
+        <v>37.857142857142854</v>
       </c>
       <c r="F11" t="n">
-        <v>2850.0</v>
+        <v>2300.0</v>
       </c>
       <c r="G11" t="n">
-        <v>475.0</v>
+        <v>328.57142857142856</v>
       </c>
       <c r="H11" t="n">
-        <v>1900.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I11" t="n">
-        <v>316.6666666666667</v>
+        <v>257.14285714285717</v>
       </c>
       <c r="J11" t="n">
-        <v>51.666666666666664</v>
+        <v>38.0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.333333333333336</v>
+        <v>44.42857142857143</v>
       </c>
       <c r="L11" t="n">
-        <v>45.833333333333336</v>
+        <v>33.42857142857143</v>
       </c>
       <c r="M11" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.0384615384615383</v>
+        <v>2.007575757575758</v>
       </c>
     </row>
     <row r="12">
@@ -810,43 +822,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D12" t="n">
-        <v>230.0</v>
+        <v>330.0</v>
       </c>
       <c r="E12" t="n">
-        <v>38.333333333333336</v>
+        <v>47.142857142857146</v>
       </c>
       <c r="F12" t="n">
-        <v>2200.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G12" t="n">
-        <v>366.6666666666667</v>
+        <v>542.8571428571429</v>
       </c>
       <c r="H12" t="n">
-        <v>2800.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I12" t="n">
-        <v>466.6666666666667</v>
+        <v>500.0</v>
       </c>
       <c r="J12" t="n">
-        <v>17.333333333333332</v>
+        <v>36.57142857142857</v>
       </c>
       <c r="K12" t="n">
-        <v>61.0</v>
+        <v>54.142857142857146</v>
       </c>
       <c r="L12" t="n">
-        <v>50.5</v>
+        <v>34.42857142857143</v>
       </c>
       <c r="M12" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7692307692307692</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="13">
@@ -854,43 +866,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D13" t="n">
-        <v>275.0</v>
+        <v>260.0</v>
       </c>
       <c r="E13" t="n">
-        <v>55.0</v>
+        <v>37.142857142857146</v>
       </c>
       <c r="F13" t="n">
-        <v>3950.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G13" t="n">
-        <v>790.0</v>
+        <v>342.85714285714283</v>
       </c>
       <c r="H13" t="n">
-        <v>1500.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>300.0</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="J13" t="n">
-        <v>58.4</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="K13" t="n">
-        <v>46.4</v>
+        <v>58.142857142857146</v>
       </c>
       <c r="L13" t="n">
-        <v>44.6</v>
+        <v>49.142857142857146</v>
       </c>
       <c r="M13" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.330508474576271</v>
+        <v>1.6993464052287581</v>
       </c>
     </row>
     <row r="14">
@@ -898,43 +910,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D14" t="n">
-        <v>300.0</v>
+        <v>445.0</v>
       </c>
       <c r="E14" t="n">
-        <v>60.0</v>
+        <v>63.57142857142857</v>
       </c>
       <c r="F14" t="n">
-        <v>4500.0</v>
+        <v>7150.0</v>
       </c>
       <c r="G14" t="n">
-        <v>900.0</v>
+        <v>1021.4285714285714</v>
       </c>
       <c r="H14" t="n">
         <v>5000.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1000.0</v>
+        <v>714.2857142857143</v>
       </c>
       <c r="J14" t="n">
-        <v>29.6</v>
+        <v>32.714285714285715</v>
       </c>
       <c r="K14" t="n">
-        <v>14.0</v>
+        <v>45.285714285714285</v>
       </c>
       <c r="L14" t="n">
-        <v>14.0</v>
+        <v>26.571428571428573</v>
       </c>
       <c r="M14" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8867924528301887</v>
+        <v>2.7134146341463414</v>
       </c>
     </row>
     <row r="15">
@@ -942,43 +954,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D15" t="n">
-        <v>265.0</v>
+        <v>300.0</v>
       </c>
       <c r="E15" t="n">
-        <v>53.0</v>
+        <v>50.0</v>
       </c>
       <c r="F15" t="n">
-        <v>2800.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G15" t="n">
-        <v>560.0</v>
+        <v>600.0</v>
       </c>
       <c r="H15" t="n">
-        <v>2750.0</v>
+        <v>3900.0</v>
       </c>
       <c r="I15" t="n">
-        <v>550.0</v>
+        <v>650.0</v>
       </c>
       <c r="J15" t="n">
-        <v>23.8</v>
+        <v>24.166666666666668</v>
       </c>
       <c r="K15" t="n">
-        <v>35.6</v>
+        <v>38.166666666666664</v>
       </c>
       <c r="L15" t="n">
-        <v>23.8</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="M15" t="n">
         <v>24.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1721311475409837</v>
+        <v>2.0689655172413794</v>
       </c>
     </row>
     <row r="16">
@@ -986,43 +998,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D16" t="n">
-        <v>310.0</v>
+        <v>210.0</v>
       </c>
       <c r="E16" t="n">
-        <v>62.0</v>
+        <v>35.0</v>
       </c>
       <c r="F16" t="n">
-        <v>5000.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1000.0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>3000.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I16" t="n">
-        <v>600.0</v>
+        <v>216.66666666666666</v>
       </c>
       <c r="J16" t="n">
-        <v>33.4</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="K16" t="n">
-        <v>45.4</v>
+        <v>51.0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.8</v>
+        <v>45.666666666666664</v>
       </c>
       <c r="M16" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.743362831858407</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="17">
@@ -1030,43 +1042,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D17" t="n">
-        <v>220.0</v>
+        <v>285.0</v>
       </c>
       <c r="E17" t="n">
-        <v>55.0</v>
+        <v>47.5</v>
       </c>
       <c r="F17" t="n">
-        <v>2700.0</v>
+        <v>3950.0</v>
       </c>
       <c r="G17" t="n">
-        <v>675.0</v>
+        <v>658.3333333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>2900.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I17" t="n">
-        <v>725.0</v>
+        <v>250.0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.75</v>
+        <v>48.666666666666664</v>
       </c>
       <c r="K17" t="n">
-        <v>42.5</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="L17" t="n">
-        <v>19.25</v>
+        <v>50.166666666666664</v>
       </c>
       <c r="M17" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2222222222222223</v>
+        <v>2.111111111111111</v>
       </c>
     </row>
     <row r="18">
@@ -1074,43 +1086,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D18" t="n">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
       <c r="E18" t="n">
-        <v>37.5</v>
+        <v>50.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1400.0</v>
+        <v>4500.0</v>
       </c>
       <c r="G18" t="n">
-        <v>350.0</v>
+        <v>750.0</v>
       </c>
       <c r="H18" t="n">
-        <v>1100.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I18" t="n">
-        <v>275.0</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="J18" t="n">
-        <v>19.25</v>
+        <v>24.666666666666668</v>
       </c>
       <c r="K18" t="n">
-        <v>49.5</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="L18" t="n">
-        <v>41.5</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="M18" t="n">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.9736842105263157</v>
+        <v>1.6574585635359116</v>
       </c>
     </row>
     <row r="19">
@@ -1118,43 +1130,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D19" t="n">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
       <c r="E19" t="n">
-        <v>53.333333333333336</v>
+        <v>30.0</v>
       </c>
       <c r="F19" t="n">
-        <v>2100.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G19" t="n">
-        <v>700.0</v>
+        <v>240.0</v>
       </c>
       <c r="H19" t="n">
-        <v>600.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I19" t="n">
         <v>200.0</v>
       </c>
       <c r="J19" t="n">
-        <v>55.333333333333336</v>
+        <v>40.8</v>
       </c>
       <c r="K19" t="n">
-        <v>54.0</v>
+        <v>46.2</v>
       </c>
       <c r="L19" t="n">
-        <v>40.333333333333336</v>
+        <v>42.2</v>
       </c>
       <c r="M19" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5396825396825395</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="20">
@@ -1162,43 +1174,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>70.0</v>
+        <v>200.0</v>
       </c>
       <c r="E20" t="n">
-        <v>23.333333333333332</v>
+        <v>50.0</v>
       </c>
       <c r="F20" t="n">
-        <v>400.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G20" t="n">
-        <v>133.33333333333334</v>
+        <v>600.0</v>
       </c>
       <c r="H20" t="n">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="I20" t="n">
-        <v>66.66666666666667</v>
+        <v>225.0</v>
       </c>
       <c r="J20" t="n">
-        <v>40.333333333333336</v>
+        <v>62.75</v>
       </c>
       <c r="K20" t="n">
-        <v>61.333333333333336</v>
+        <v>50.5</v>
       </c>
       <c r="L20" t="n">
-        <v>54.666666666666664</v>
+        <v>40.25</v>
       </c>
       <c r="M20" t="n">
         <v>21.0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.1111111111111112</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="21">
@@ -1206,43 +1218,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>150.0</v>
+        <v>245.0</v>
       </c>
       <c r="E21" t="n">
-        <v>50.0</v>
+        <v>61.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1600.0</v>
+        <v>3350.0</v>
       </c>
       <c r="G21" t="n">
-        <v>533.3333333333334</v>
+        <v>837.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1400.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I21" t="n">
-        <v>466.6666666666667</v>
+        <v>525.0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.0</v>
+        <v>51.0</v>
       </c>
       <c r="K21" t="n">
-        <v>36.0</v>
+        <v>64.75</v>
       </c>
       <c r="L21" t="n">
-        <v>19.0</v>
+        <v>49.0</v>
       </c>
       <c r="M21" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.875</v>
+        <v>2.5789473684210527</v>
       </c>
     </row>
     <row r="22">
@@ -1250,43 +1262,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D22" t="n">
-        <v>60.0</v>
+        <v>180.0</v>
       </c>
       <c r="E22" t="n">
-        <v>30.0</v>
+        <v>45.0</v>
       </c>
       <c r="F22" t="n">
-        <v>400.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G22" t="n">
-        <v>200.0</v>
+        <v>450.0</v>
       </c>
       <c r="H22" t="n">
-        <v>200.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I22" t="n">
-        <v>100.0</v>
+        <v>350.0</v>
       </c>
       <c r="J22" t="n">
-        <v>53.5</v>
+        <v>27.5</v>
       </c>
       <c r="K22" t="n">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="L22" t="n">
-        <v>48.5</v>
+        <v>26.75</v>
       </c>
       <c r="M22" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.3043478260869565</v>
+        <v>1.836734693877551</v>
       </c>
     </row>
     <row r="23">
@@ -1294,43 +1306,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D23" t="n">
-        <v>130.0</v>
+        <v>80.0</v>
       </c>
       <c r="E23" t="n">
-        <v>65.0</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="F23" t="n">
-        <v>2100.0</v>
+        <v>500.0</v>
       </c>
       <c r="G23" t="n">
-        <v>1050.0</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>1200.0</v>
+        <v>300.0</v>
       </c>
       <c r="I23" t="n">
-        <v>600.0</v>
+        <v>100.0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.0</v>
+        <v>46.333333333333336</v>
       </c>
       <c r="K23" t="n">
-        <v>72.0</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="L23" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="M23" t="n">
         <v>23.0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.765957446808511</v>
+        <v>1.1594202898550725</v>
       </c>
     </row>
     <row r="24">
@@ -1338,7 +1350,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" t="n">
         <v>2.0</v>
@@ -1356,25 +1368,25 @@
         <v>600.0</v>
       </c>
       <c r="H24" t="n">
-        <v>1000.0</v>
+        <v>800.0</v>
       </c>
       <c r="I24" t="n">
-        <v>500.0</v>
+        <v>400.0</v>
       </c>
       <c r="J24" t="n">
-        <v>31.5</v>
+        <v>59.5</v>
       </c>
       <c r="K24" t="n">
-        <v>24.0</v>
+        <v>40.5</v>
       </c>
       <c r="L24" t="n">
-        <v>18.5</v>
+        <v>40.5</v>
       </c>
       <c r="M24" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="N24" t="n">
-        <v>2.127659574468085</v>
+        <v>1.9607843137254901</v>
       </c>
     </row>
     <row r="25">
@@ -1382,43 +1394,43 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" t="n">
         <v>2.0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0</v>
+        <v>100.0</v>
       </c>
       <c r="E25" t="n">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1800.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G25" t="n">
-        <v>900.0</v>
+        <v>600.0</v>
       </c>
       <c r="H25" t="n">
-        <v>700.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I25" t="n">
-        <v>350.0</v>
+        <v>500.0</v>
       </c>
       <c r="J25" t="n">
-        <v>27.5</v>
+        <v>31.5</v>
       </c>
       <c r="K25" t="n">
-        <v>38.5</v>
+        <v>24.0</v>
       </c>
       <c r="L25" t="n">
-        <v>27.5</v>
+        <v>18.5</v>
       </c>
       <c r="M25" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.5</v>
+        <v>2.127659574468085</v>
       </c>
     </row>
     <row r="26">
@@ -1426,43 +1438,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D26" t="n">
-        <v>75.0</v>
+        <v>110.0</v>
       </c>
       <c r="E26" t="n">
-        <v>75.0</v>
+        <v>55.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1350.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1350.0</v>
+        <v>900.0</v>
       </c>
       <c r="H26" t="n">
-        <v>800.0</v>
+        <v>700.0</v>
       </c>
       <c r="I26" t="n">
-        <v>800.0</v>
+        <v>350.0</v>
       </c>
       <c r="J26" t="n">
-        <v>40.0</v>
+        <v>27.5</v>
       </c>
       <c r="K26" t="n">
-        <v>9.0</v>
+        <v>38.5</v>
       </c>
       <c r="L26" t="n">
-        <v>9.0</v>
+        <v>27.5</v>
       </c>
       <c r="M26" t="n">
-        <v>32.0</v>
+        <v>22.0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.34375</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27">
@@ -1470,22 +1482,22 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
       </c>
       <c r="D27" t="n">
-        <v>65.0</v>
+        <v>75.0</v>
       </c>
       <c r="E27" t="n">
-        <v>65.0</v>
+        <v>75.0</v>
       </c>
       <c r="F27" t="n">
-        <v>900.0</v>
+        <v>1350.0</v>
       </c>
       <c r="G27" t="n">
-        <v>900.0</v>
+        <v>1350.0</v>
       </c>
       <c r="H27" t="n">
         <v>800.0</v>
@@ -1494,19 +1506,19 @@
         <v>800.0</v>
       </c>
       <c r="J27" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="K27" t="n">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="L27" t="n">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="M27" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.2413793103448274</v>
+        <v>2.34375</v>
       </c>
     </row>
     <row r="28">
@@ -1514,43 +1526,43 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
       </c>
       <c r="D28" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="E28" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="F28" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="G28" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="H28" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="I28" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="J28" t="n">
-        <v>38.0</v>
+        <v>48.0</v>
       </c>
       <c r="K28" t="n">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
       <c r="L28" t="n">
-        <v>38.0</v>
+        <v>22.0</v>
       </c>
       <c r="M28" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.0833333333333335</v>
+        <v>2.2413793103448274</v>
       </c>
     </row>
     <row r="29">
@@ -1558,43 +1570,43 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
       </c>
       <c r="D29" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="E29" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="F29" t="n">
-        <v>900.0</v>
+        <v>600.0</v>
       </c>
       <c r="G29" t="n">
-        <v>900.0</v>
+        <v>600.0</v>
       </c>
       <c r="H29" t="n">
-        <v>500.0</v>
+        <v>400.0</v>
       </c>
       <c r="I29" t="n">
-        <v>500.0</v>
+        <v>400.0</v>
       </c>
       <c r="J29" t="n">
-        <v>46.0</v>
+        <v>38.0</v>
       </c>
       <c r="K29" t="n">
-        <v>39.0</v>
+        <v>50.0</v>
       </c>
       <c r="L29" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="M29" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="N29" t="n">
-        <v>2.2222222222222223</v>
+        <v>2.0833333333333335</v>
       </c>
     </row>
     <row r="30">
@@ -1602,7 +1614,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -1646,7 +1658,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -1690,7 +1702,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -1734,7 +1746,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
@@ -1778,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C34" t="n">
         <v>1.0</v>
@@ -1822,7 +1834,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C35" t="n">
         <v>1.0</v>
@@ -1866,43 +1878,43 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" t="n">
         <v>1.0</v>
       </c>
       <c r="D36" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
       <c r="E36" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
       <c r="F36" t="n">
-        <v>200.0</v>
+        <v>1050.0</v>
       </c>
       <c r="G36" t="n">
-        <v>200.0</v>
+        <v>1050.0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="J36" t="n">
-        <v>50.0</v>
+        <v>12.0</v>
       </c>
       <c r="K36" t="n">
-        <v>49.0</v>
+        <v>25.0</v>
       </c>
       <c r="L36" t="n">
-        <v>49.0</v>
+        <v>12.0</v>
       </c>
       <c r="M36" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="N36" t="n">
-        <v>1.3043478260869565</v>
+        <v>4.0625</v>
       </c>
     </row>
     <row r="37">
@@ -1910,43 +1922,43 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
       </c>
       <c r="D37" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="E37" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="F37" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.0</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>0.0</v>
       </c>
-      <c r="H37" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>100.0</v>
-      </c>
       <c r="J37" t="n">
-        <v>37.0</v>
+        <v>50.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="L37" t="n">
-        <v>37.0</v>
+        <v>49.0</v>
       </c>
       <c r="M37" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7692307692307693</v>
+        <v>1.3043478260869565</v>
       </c>
     </row>
     <row r="38">
@@ -1954,42 +1966,130 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
       </c>
       <c r="D38" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.4615384615384617</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D40" t="n">
         <v>75.0</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E40" t="n">
         <v>75.0</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F40" t="n">
         <v>1350.0</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G40" t="n">
         <v>1350.0</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>1100.0</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I40" t="n">
         <v>1100.0</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J40" t="n">
         <v>9.0</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K40" t="n">
         <v>35.0</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L40" t="n">
         <v>9.0</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M40" t="n">
         <v>27.0</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N40" t="n">
         <v>2.7777777777777777</v>
       </c>
     </row>

--- a/E1_refereestats.xlsx
+++ b/E1_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Referee</t>
   </si>
@@ -170,60 +170,66 @@
     <t>39</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>John Busby</t>
+  </si>
+  <si>
+    <t>Robert Madley</t>
+  </si>
+  <si>
+    <t>Oliver Langford</t>
+  </si>
+  <si>
+    <t>Gavin Ward</t>
+  </si>
+  <si>
+    <t>Joshua Smith</t>
+  </si>
+  <si>
+    <t>Matt Donohue</t>
+  </si>
+  <si>
+    <t>Andrew Kitchen</t>
+  </si>
+  <si>
+    <t>Anthony Backhouse</t>
+  </si>
+  <si>
+    <t>David Webb</t>
+  </si>
+  <si>
+    <t>Tom Nield</t>
+  </si>
+  <si>
+    <t>Stephen Martin</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Oliver Langford</t>
-  </si>
-  <si>
-    <t>Tom Nield</t>
-  </si>
-  <si>
-    <t>Robert Madley</t>
-  </si>
-  <si>
-    <t>David Webb</t>
-  </si>
-  <si>
-    <t>Gavin Ward</t>
-  </si>
-  <si>
-    <t>John Busby</t>
-  </si>
-  <si>
-    <t>Joshua Smith</t>
-  </si>
-  <si>
-    <t>Matt Donohue</t>
-  </si>
-  <si>
-    <t>Anthony Backhouse</t>
-  </si>
-  <si>
     <t>Leigh Doughty</t>
   </si>
   <si>
+    <t>James Bell</t>
+  </si>
+  <si>
+    <t>Lewis Smith</t>
+  </si>
+  <si>
+    <t>Andrew Davies</t>
+  </si>
+  <si>
     <t>Dean Whitestone</t>
   </si>
   <si>
-    <t>James Bell</t>
-  </si>
-  <si>
     <t>Samuel Allison</t>
   </si>
   <si>
-    <t>Andrew Davies</t>
-  </si>
-  <si>
-    <t>Andrew Kitchen</t>
-  </si>
-  <si>
-    <t>Stephen Martin</t>
-  </si>
-  <si>
-    <t>Lewis Smith</t>
-  </si>
-  <si>
     <t>James Linington</t>
   </si>
   <si>
@@ -236,55 +242,61 @@
     <t>Michael Salisbury</t>
   </si>
   <si>
+    <t>Thomas Bramall</t>
+  </si>
+  <si>
     <t>Tim Robinson</t>
   </si>
   <si>
     <t>Simon Hooper</t>
   </si>
   <si>
+    <t>Sunny Gill</t>
+  </si>
+  <si>
+    <t>Andy Madley</t>
+  </si>
+  <si>
+    <t>Thomas Kirk</t>
+  </si>
+  <si>
+    <t>Darren Bond</t>
+  </si>
+  <si>
+    <t>Tony Harrington</t>
+  </si>
+  <si>
+    <t>Geoff Eltringham</t>
+  </si>
+  <si>
     <t>John Brooks</t>
   </si>
   <si>
+    <t>Craig Pawson</t>
+  </si>
+  <si>
+    <t>Farai Hallam</t>
+  </si>
+  <si>
     <t>Steve Martin</t>
   </si>
   <si>
     <t>Keith Stroud</t>
   </si>
   <si>
-    <t>Andy Madley</t>
-  </si>
-  <si>
-    <t>Thomas Kirk</t>
-  </si>
-  <si>
-    <t>Darren Bond</t>
-  </si>
-  <si>
     <t>Peter Bankes</t>
   </si>
   <si>
-    <t>Tony Harrington</t>
-  </si>
-  <si>
-    <t>Geoff Eltringham</t>
-  </si>
-  <si>
     <t>David Coote</t>
   </si>
   <si>
-    <t>Thomas Bramall</t>
-  </si>
-  <si>
-    <t>Sunny Gill</t>
-  </si>
-  <si>
     <t>Darren England</t>
   </si>
   <si>
     <t>Stuart Attwell</t>
   </si>
   <si>
-    <t>Craig Pawson</t>
+    <t>Adam Herczeg</t>
   </si>
 </sst>
 </file>
@@ -382,43 +394,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D2" t="n">
-        <v>290.0</v>
+        <v>520.0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1900.0</v>
+        <v>4850.0</v>
       </c>
       <c r="G2" t="n">
-        <v>190.0</v>
+        <v>373.0769230769231</v>
       </c>
       <c r="H2" t="n">
-        <v>1900.0</v>
+        <v>3700.0</v>
       </c>
       <c r="I2" t="n">
-        <v>190.0</v>
+        <v>284.61538461538464</v>
       </c>
       <c r="J2" t="n">
-        <v>54.2</v>
+        <v>47.30769230769231</v>
       </c>
       <c r="K2" t="n">
-        <v>19.0</v>
+        <v>39.0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.1</v>
+        <v>46.69230769230769</v>
       </c>
       <c r="M2" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.355140186915888</v>
+        <v>1.7687074829931972</v>
       </c>
     </row>
     <row r="3">
@@ -426,43 +438,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D3" t="n">
-        <v>350.0</v>
+        <v>485.0</v>
       </c>
       <c r="E3" t="n">
-        <v>38.888888888888886</v>
+        <v>40.416666666666664</v>
       </c>
       <c r="F3" t="n">
-        <v>3100.0</v>
+        <v>5800.0</v>
       </c>
       <c r="G3" t="n">
-        <v>344.44444444444446</v>
+        <v>483.3333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>3100.0</v>
+        <v>4100.0</v>
       </c>
       <c r="I3" t="n">
-        <v>344.44444444444446</v>
+        <v>341.6666666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>40.77777777777778</v>
+        <v>34.166666666666664</v>
       </c>
       <c r="K3" t="n">
-        <v>32.666666666666664</v>
+        <v>41.333333333333336</v>
       </c>
       <c r="L3" t="n">
-        <v>28.22222222222222</v>
+        <v>31.75</v>
       </c>
       <c r="M3" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.627906976744186</v>
+        <v>1.8653846153846154</v>
       </c>
     </row>
     <row r="4">
@@ -470,43 +482,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D4" t="n">
-        <v>440.0</v>
+        <v>410.0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.888888888888886</v>
+        <v>34.166666666666664</v>
       </c>
       <c r="F4" t="n">
-        <v>5100.0</v>
+        <v>3300.0</v>
       </c>
       <c r="G4" t="n">
-        <v>566.6666666666666</v>
+        <v>275.0</v>
       </c>
       <c r="H4" t="n">
-        <v>4100.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I4" t="n">
-        <v>455.55555555555554</v>
+        <v>275.0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.55555555555556</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="K4" t="n">
-        <v>36.0</v>
+        <v>35.5</v>
       </c>
       <c r="L4" t="n">
-        <v>34.888888888888886</v>
+        <v>37.916666666666664</v>
       </c>
       <c r="M4" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9047619047619047</v>
+        <v>1.5471698113207548</v>
       </c>
     </row>
     <row r="5">
@@ -514,43 +526,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D5" t="n">
-        <v>295.0</v>
+        <v>645.0</v>
       </c>
       <c r="E5" t="n">
-        <v>36.875</v>
+        <v>53.75</v>
       </c>
       <c r="F5" t="n">
-        <v>2900.0</v>
+        <v>8775.0</v>
       </c>
       <c r="G5" t="n">
-        <v>362.5</v>
+        <v>731.25</v>
       </c>
       <c r="H5" t="n">
-        <v>2100.0</v>
+        <v>7050.0</v>
       </c>
       <c r="I5" t="n">
-        <v>262.5</v>
+        <v>587.5</v>
       </c>
       <c r="J5" t="n">
-        <v>38.625</v>
+        <v>39.416666666666664</v>
       </c>
       <c r="K5" t="n">
-        <v>41.75</v>
+        <v>56.5</v>
       </c>
       <c r="L5" t="n">
-        <v>36.375</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="M5" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.755952380952381</v>
+        <v>2.388888888888889</v>
       </c>
     </row>
     <row r="6">
@@ -558,43 +570,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D6" t="n">
-        <v>230.0</v>
+        <v>575.0</v>
       </c>
       <c r="E6" t="n">
-        <v>28.75</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="F6" t="n">
-        <v>1800.0</v>
+        <v>6100.0</v>
       </c>
       <c r="G6" t="n">
-        <v>225.0</v>
+        <v>508.3333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1300.0</v>
+        <v>5150.0</v>
       </c>
       <c r="I6" t="n">
-        <v>162.5</v>
+        <v>429.1666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>35.25</v>
+        <v>32.583333333333336</v>
       </c>
       <c r="K6" t="n">
-        <v>52.25</v>
+        <v>43.0</v>
       </c>
       <c r="L6" t="n">
-        <v>27.0</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="M6" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.4024390243902438</v>
+        <v>2.1296296296296298</v>
       </c>
     </row>
     <row r="7">
@@ -602,43 +614,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D7" t="n">
-        <v>405.0</v>
+        <v>510.0</v>
       </c>
       <c r="E7" t="n">
-        <v>50.625</v>
+        <v>42.5</v>
       </c>
       <c r="F7" t="n">
-        <v>4650.0</v>
+        <v>6625.0</v>
       </c>
       <c r="G7" t="n">
-        <v>581.25</v>
+        <v>552.0833333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>3800.0</v>
+        <v>7075.0</v>
       </c>
       <c r="I7" t="n">
-        <v>475.0</v>
+        <v>589.5833333333334</v>
       </c>
       <c r="J7" t="n">
-        <v>50.25</v>
+        <v>24.25</v>
       </c>
       <c r="K7" t="n">
-        <v>55.5</v>
+        <v>41.916666666666664</v>
       </c>
       <c r="L7" t="n">
-        <v>35.5</v>
+        <v>28.833333333333332</v>
       </c>
       <c r="M7" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.0454545454545454</v>
+        <v>1.8681318681318682</v>
       </c>
     </row>
     <row r="8">
@@ -646,43 +658,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="n">
-        <v>360.0</v>
+        <v>465.0</v>
       </c>
       <c r="E8" t="n">
-        <v>45.0</v>
+        <v>42.27272727272727</v>
       </c>
       <c r="F8" t="n">
-        <v>3750.0</v>
+        <v>6250.0</v>
       </c>
       <c r="G8" t="n">
-        <v>468.75</v>
+        <v>568.1818181818181</v>
       </c>
       <c r="H8" t="n">
-        <v>2500.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I8" t="n">
-        <v>312.5</v>
+        <v>318.1818181818182</v>
       </c>
       <c r="J8" t="n">
-        <v>46.25</v>
+        <v>47.0</v>
       </c>
       <c r="K8" t="n">
-        <v>43.75</v>
+        <v>41.0</v>
       </c>
       <c r="L8" t="n">
-        <v>48.625</v>
+        <v>48.63636363636363</v>
       </c>
       <c r="M8" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.0338983050847457</v>
+        <v>1.7222222222222223</v>
       </c>
     </row>
     <row r="9">
@@ -690,43 +702,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="D9" t="n">
-        <v>435.0</v>
+        <v>455.0</v>
       </c>
       <c r="E9" t="n">
-        <v>54.375</v>
+        <v>41.36363636363637</v>
       </c>
       <c r="F9" t="n">
-        <v>5200.0</v>
+        <v>4300.0</v>
       </c>
       <c r="G9" t="n">
-        <v>650.0</v>
+        <v>390.90909090909093</v>
       </c>
       <c r="H9" t="n">
-        <v>4150.0</v>
+        <v>4300.0</v>
       </c>
       <c r="I9" t="n">
-        <v>518.75</v>
+        <v>390.90909090909093</v>
       </c>
       <c r="J9" t="n">
-        <v>33.625</v>
+        <v>30.818181818181817</v>
       </c>
       <c r="K9" t="n">
-        <v>36.375</v>
+        <v>40.27272727272727</v>
       </c>
       <c r="L9" t="n">
-        <v>29.0</v>
+        <v>30.818181818181817</v>
       </c>
       <c r="M9" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.265625</v>
+        <v>2.136150234741784</v>
       </c>
     </row>
     <row r="10">
@@ -734,43 +746,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="D10" t="n">
-        <v>430.0</v>
+        <v>370.0</v>
       </c>
       <c r="E10" t="n">
-        <v>53.75</v>
+        <v>33.63636363636363</v>
       </c>
       <c r="F10" t="n">
-        <v>6325.0</v>
+        <v>3300.0</v>
       </c>
       <c r="G10" t="n">
-        <v>790.625</v>
+        <v>300.0</v>
       </c>
       <c r="H10" t="n">
-        <v>6875.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I10" t="n">
-        <v>859.375</v>
+        <v>218.1818181818182</v>
       </c>
       <c r="J10" t="n">
-        <v>28.875</v>
+        <v>40.18181818181818</v>
       </c>
       <c r="K10" t="n">
-        <v>38.0</v>
+        <v>51.72727272727273</v>
       </c>
       <c r="L10" t="n">
-        <v>23.375</v>
+        <v>30.727272727272727</v>
       </c>
       <c r="M10" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.193877551020408</v>
+        <v>1.608695652173913</v>
       </c>
     </row>
     <row r="11">
@@ -778,43 +790,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11" t="n">
-        <v>265.0</v>
+        <v>470.0</v>
       </c>
       <c r="E11" t="n">
-        <v>37.857142857142854</v>
+        <v>47.0</v>
       </c>
       <c r="F11" t="n">
-        <v>2300.0</v>
+        <v>5300.0</v>
       </c>
       <c r="G11" t="n">
-        <v>328.57142857142856</v>
+        <v>530.0</v>
       </c>
       <c r="H11" t="n">
-        <v>1800.0</v>
+        <v>4100.0</v>
       </c>
       <c r="I11" t="n">
-        <v>257.14285714285717</v>
+        <v>410.0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.0</v>
+        <v>51.9</v>
       </c>
       <c r="K11" t="n">
-        <v>44.42857142857143</v>
+        <v>40.9</v>
       </c>
       <c r="L11" t="n">
-        <v>33.42857142857143</v>
+        <v>36.9</v>
       </c>
       <c r="M11" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.007575757575758</v>
+        <v>1.8503937007874016</v>
       </c>
     </row>
     <row r="12">
@@ -822,43 +834,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D12" t="n">
-        <v>330.0</v>
+        <v>380.0</v>
       </c>
       <c r="E12" t="n">
-        <v>47.142857142857146</v>
+        <v>38.0</v>
       </c>
       <c r="F12" t="n">
-        <v>3800.0</v>
+        <v>4700.0</v>
       </c>
       <c r="G12" t="n">
-        <v>542.8571428571429</v>
+        <v>470.0</v>
       </c>
       <c r="H12" t="n">
-        <v>3500.0</v>
+        <v>5400.0</v>
       </c>
       <c r="I12" t="n">
-        <v>500.0</v>
+        <v>540.0</v>
       </c>
       <c r="J12" t="n">
-        <v>36.57142857142857</v>
+        <v>19.4</v>
       </c>
       <c r="K12" t="n">
-        <v>54.142857142857146</v>
+        <v>28.6</v>
       </c>
       <c r="L12" t="n">
-        <v>34.42857142857143</v>
+        <v>28.6</v>
       </c>
       <c r="M12" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.875</v>
+        <v>1.4232209737827715</v>
       </c>
     </row>
     <row r="13">
@@ -866,43 +878,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" t="n">
-        <v>260.0</v>
+        <v>290.0</v>
       </c>
       <c r="E13" t="n">
-        <v>37.142857142857146</v>
+        <v>29.0</v>
       </c>
       <c r="F13" t="n">
-        <v>2400.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G13" t="n">
-        <v>342.85714285714283</v>
+        <v>190.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3000.0</v>
+        <v>1900.0</v>
       </c>
       <c r="I13" t="n">
-        <v>428.57142857142856</v>
+        <v>190.0</v>
       </c>
       <c r="J13" t="n">
-        <v>27.714285714285715</v>
+        <v>54.2</v>
       </c>
       <c r="K13" t="n">
-        <v>58.142857142857146</v>
+        <v>19.0</v>
       </c>
       <c r="L13" t="n">
-        <v>49.142857142857146</v>
+        <v>36.1</v>
       </c>
       <c r="M13" t="n">
         <v>21.0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.6993464052287581</v>
+        <v>1.355140186915888</v>
       </c>
     </row>
     <row r="14">
@@ -910,43 +922,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D14" t="n">
-        <v>445.0</v>
+        <v>470.0</v>
       </c>
       <c r="E14" t="n">
-        <v>63.57142857142857</v>
+        <v>47.0</v>
       </c>
       <c r="F14" t="n">
-        <v>7150.0</v>
+        <v>5700.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1021.4285714285714</v>
+        <v>570.0</v>
       </c>
       <c r="H14" t="n">
-        <v>5000.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I14" t="n">
-        <v>714.2857142857143</v>
+        <v>480.0</v>
       </c>
       <c r="J14" t="n">
-        <v>32.714285714285715</v>
+        <v>39.4</v>
       </c>
       <c r="K14" t="n">
-        <v>45.285714285714285</v>
+        <v>51.2</v>
       </c>
       <c r="L14" t="n">
-        <v>26.571428571428573</v>
+        <v>32.5</v>
       </c>
       <c r="M14" t="n">
         <v>23.0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.7134146341463414</v>
+        <v>1.9665271966527196</v>
       </c>
     </row>
     <row r="15">
@@ -954,43 +966,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D15" t="n">
-        <v>300.0</v>
+        <v>515.0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.0</v>
+        <v>51.5</v>
       </c>
       <c r="F15" t="n">
-        <v>3600.0</v>
+        <v>7650.0</v>
       </c>
       <c r="G15" t="n">
-        <v>600.0</v>
+        <v>765.0</v>
       </c>
       <c r="H15" t="n">
-        <v>3900.0</v>
+        <v>5900.0</v>
       </c>
       <c r="I15" t="n">
-        <v>650.0</v>
+        <v>590.0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.166666666666668</v>
+        <v>28.8</v>
       </c>
       <c r="K15" t="n">
-        <v>38.166666666666664</v>
+        <v>32.8</v>
       </c>
       <c r="L15" t="n">
-        <v>22.666666666666668</v>
+        <v>21.0</v>
       </c>
       <c r="M15" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.0689655172413794</v>
+        <v>2.2489082969432315</v>
       </c>
     </row>
     <row r="16">
@@ -998,43 +1010,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D16" t="n">
-        <v>210.0</v>
+        <v>290.0</v>
       </c>
       <c r="E16" t="n">
-        <v>35.0</v>
+        <v>32.22222222222222</v>
       </c>
       <c r="F16" t="n">
-        <v>1600.0</v>
+        <v>2300.0</v>
       </c>
       <c r="G16" t="n">
-        <v>266.6666666666667</v>
+        <v>255.55555555555554</v>
       </c>
       <c r="H16" t="n">
-        <v>1300.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I16" t="n">
-        <v>216.66666666666666</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="J16" t="n">
-        <v>25.666666666666668</v>
+        <v>38.77777777777778</v>
       </c>
       <c r="K16" t="n">
-        <v>51.0</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="L16" t="n">
-        <v>45.666666666666664</v>
+        <v>36.111111111111114</v>
       </c>
       <c r="M16" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.75</v>
+        <v>1.3942307692307692</v>
       </c>
     </row>
     <row r="17">
@@ -1042,43 +1054,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D17" t="n">
-        <v>285.0</v>
+        <v>310.0</v>
       </c>
       <c r="E17" t="n">
-        <v>47.5</v>
+        <v>34.44444444444444</v>
       </c>
       <c r="F17" t="n">
-        <v>3950.0</v>
+        <v>2300.0</v>
       </c>
       <c r="G17" t="n">
-        <v>658.3333333333334</v>
+        <v>255.55555555555554</v>
       </c>
       <c r="H17" t="n">
-        <v>1500.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I17" t="n">
-        <v>250.0</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="J17" t="n">
-        <v>48.666666666666664</v>
+        <v>28.555555555555557</v>
       </c>
       <c r="K17" t="n">
-        <v>51.666666666666664</v>
+        <v>50.888888888888886</v>
       </c>
       <c r="L17" t="n">
-        <v>50.166666666666664</v>
+        <v>37.666666666666664</v>
       </c>
       <c r="M17" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.111111111111111</v>
+        <v>1.6577540106951871</v>
       </c>
     </row>
     <row r="18">
@@ -1086,43 +1098,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D18" t="n">
-        <v>300.0</v>
+        <v>360.0</v>
       </c>
       <c r="E18" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4500.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G18" t="n">
-        <v>750.0</v>
+        <v>400.0</v>
       </c>
       <c r="H18" t="n">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I18" t="n">
-        <v>833.3333333333334</v>
+        <v>444.44444444444446</v>
       </c>
       <c r="J18" t="n">
-        <v>24.666666666666668</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="K18" t="n">
-        <v>11.666666666666666</v>
+        <v>55.22222222222222</v>
       </c>
       <c r="L18" t="n">
-        <v>11.666666666666666</v>
+        <v>48.22222222222222</v>
       </c>
       <c r="M18" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.6574585635359116</v>
+        <v>1.8274111675126903</v>
       </c>
     </row>
     <row r="19">
@@ -1130,43 +1142,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D19" t="n">
-        <v>150.0</v>
+        <v>330.0</v>
       </c>
       <c r="E19" t="n">
-        <v>30.0</v>
+        <v>47.142857142857146</v>
       </c>
       <c r="F19" t="n">
-        <v>1200.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G19" t="n">
-        <v>240.0</v>
+        <v>542.8571428571429</v>
       </c>
       <c r="H19" t="n">
-        <v>1000.0</v>
+        <v>3900.0</v>
       </c>
       <c r="I19" t="n">
-        <v>200.0</v>
+        <v>557.1428571428571</v>
       </c>
       <c r="J19" t="n">
-        <v>40.8</v>
+        <v>33.57142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>46.2</v>
+        <v>39.857142857142854</v>
       </c>
       <c r="L19" t="n">
-        <v>42.2</v>
+        <v>26.571428571428573</v>
       </c>
       <c r="M19" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.25</v>
+        <v>1.9879518072289157</v>
       </c>
     </row>
     <row r="20">
@@ -1174,43 +1186,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D20" t="n">
-        <v>200.0</v>
+        <v>310.0</v>
       </c>
       <c r="E20" t="n">
-        <v>50.0</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="F20" t="n">
-        <v>2400.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G20" t="n">
-        <v>600.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>900.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I20" t="n">
-        <v>225.0</v>
+        <v>350.0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.75</v>
+        <v>55.0</v>
       </c>
       <c r="K20" t="n">
-        <v>50.5</v>
+        <v>51.166666666666664</v>
       </c>
       <c r="L20" t="n">
-        <v>40.25</v>
+        <v>40.0</v>
       </c>
       <c r="M20" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.380952380952381</v>
+        <v>2.2627737226277373</v>
       </c>
     </row>
     <row r="21">
@@ -1218,43 +1230,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D21" t="n">
-        <v>245.0</v>
+        <v>315.0</v>
       </c>
       <c r="E21" t="n">
-        <v>61.25</v>
+        <v>52.5</v>
       </c>
       <c r="F21" t="n">
-        <v>3350.0</v>
+        <v>3850.0</v>
       </c>
       <c r="G21" t="n">
-        <v>837.5</v>
+        <v>641.6666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>2100.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I21" t="n">
-        <v>525.0</v>
+        <v>400.0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.0</v>
+        <v>54.5</v>
       </c>
       <c r="K21" t="n">
-        <v>64.75</v>
+        <v>67.16666666666667</v>
       </c>
       <c r="L21" t="n">
-        <v>49.0</v>
+        <v>50.166666666666664</v>
       </c>
       <c r="M21" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.5789473684210527</v>
+        <v>2.0588235294117645</v>
       </c>
     </row>
     <row r="22">
@@ -1262,43 +1274,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D22" t="n">
-        <v>180.0</v>
+        <v>280.0</v>
       </c>
       <c r="E22" t="n">
-        <v>45.0</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F22" t="n">
-        <v>1800.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G22" t="n">
-        <v>450.0</v>
+        <v>500.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1400.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I22" t="n">
-        <v>350.0</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>27.5</v>
+        <v>27.833333333333332</v>
       </c>
       <c r="K22" t="n">
-        <v>49.5</v>
+        <v>42.0</v>
       </c>
       <c r="L22" t="n">
-        <v>26.75</v>
+        <v>26.0</v>
       </c>
       <c r="M22" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.836734693877551</v>
+        <v>2.028985507246377</v>
       </c>
     </row>
     <row r="23">
@@ -1306,43 +1318,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D23" t="n">
-        <v>80.0</v>
+        <v>155.0</v>
       </c>
       <c r="E23" t="n">
-        <v>26.666666666666668</v>
+        <v>38.75</v>
       </c>
       <c r="F23" t="n">
-        <v>500.0</v>
+        <v>1850.0</v>
       </c>
       <c r="G23" t="n">
-        <v>166.66666666666666</v>
+        <v>462.5</v>
       </c>
       <c r="H23" t="n">
-        <v>300.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I23" t="n">
-        <v>100.0</v>
+        <v>350.0</v>
       </c>
       <c r="J23" t="n">
-        <v>46.333333333333336</v>
+        <v>35.0</v>
       </c>
       <c r="K23" t="n">
-        <v>60.333333333333336</v>
+        <v>46.0</v>
       </c>
       <c r="L23" t="n">
-        <v>43.0</v>
+        <v>32.5</v>
       </c>
       <c r="M23" t="n">
         <v>23.0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1594202898550725</v>
+        <v>1.648936170212766</v>
       </c>
     </row>
     <row r="24">
@@ -1350,43 +1362,43 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D24" t="n">
-        <v>100.0</v>
+        <v>155.0</v>
       </c>
       <c r="E24" t="n">
-        <v>50.0</v>
+        <v>38.75</v>
       </c>
       <c r="F24" t="n">
-        <v>1200.0</v>
+        <v>1650.0</v>
       </c>
       <c r="G24" t="n">
+        <v>412.5</v>
+      </c>
+      <c r="H24" t="n">
         <v>600.0</v>
       </c>
-      <c r="H24" t="n">
-        <v>800.0</v>
-      </c>
       <c r="I24" t="n">
-        <v>400.0</v>
+        <v>150.0</v>
       </c>
       <c r="J24" t="n">
-        <v>59.5</v>
+        <v>32.25</v>
       </c>
       <c r="K24" t="n">
-        <v>40.5</v>
+        <v>41.5</v>
       </c>
       <c r="L24" t="n">
-        <v>40.5</v>
+        <v>32.0</v>
       </c>
       <c r="M24" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.9607843137254901</v>
+        <v>1.9375</v>
       </c>
     </row>
     <row r="25">
@@ -1394,43 +1406,43 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D25" t="n">
-        <v>100.0</v>
+        <v>140.0</v>
       </c>
       <c r="E25" t="n">
-        <v>50.0</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F25" t="n">
-        <v>1200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G25" t="n">
-        <v>600.0</v>
+        <v>500.0</v>
       </c>
       <c r="H25" t="n">
-        <v>1000.0</v>
+        <v>1100.0</v>
       </c>
       <c r="I25" t="n">
-        <v>500.0</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="J25" t="n">
-        <v>31.5</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="K25" t="n">
+        <v>37.333333333333336</v>
+      </c>
+      <c r="L25" t="n">
+        <v>37.333333333333336</v>
+      </c>
+      <c r="M25" t="n">
         <v>24.0</v>
       </c>
-      <c r="L25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>23.0</v>
-      </c>
       <c r="N25" t="n">
-        <v>2.127659574468085</v>
+        <v>1.8918918918918919</v>
       </c>
     </row>
     <row r="26">
@@ -1438,43 +1450,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D26" t="n">
-        <v>110.0</v>
+        <v>150.0</v>
       </c>
       <c r="E26" t="n">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1800.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G26" t="n">
-        <v>900.0</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="H26" t="n">
-        <v>700.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I26" t="n">
-        <v>350.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>27.5</v>
+        <v>40.0</v>
       </c>
       <c r="K26" t="n">
-        <v>38.5</v>
+        <v>30.0</v>
       </c>
       <c r="L26" t="n">
-        <v>27.5</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="M26" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.5</v>
+        <v>2.3076923076923075</v>
       </c>
     </row>
     <row r="27">
@@ -1482,43 +1494,43 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D27" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="E27" t="n">
-        <v>75.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F27" t="n">
-        <v>1350.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G27" t="n">
-        <v>1350.0</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>800.0</v>
+        <v>900.0</v>
       </c>
       <c r="I27" t="n">
-        <v>800.0</v>
+        <v>300.0</v>
       </c>
       <c r="J27" t="n">
-        <v>40.0</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="K27" t="n">
-        <v>9.0</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="L27" t="n">
-        <v>9.0</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="M27" t="n">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.34375</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="28">
@@ -1526,43 +1538,43 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.0</v>
+        <v>90.0</v>
       </c>
       <c r="E28" t="n">
-        <v>65.0</v>
+        <v>45.0</v>
       </c>
       <c r="F28" t="n">
         <v>900.0</v>
       </c>
       <c r="G28" t="n">
-        <v>900.0</v>
+        <v>450.0</v>
       </c>
       <c r="H28" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="I28" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="J28" t="n">
-        <v>48.0</v>
+        <v>42.0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.0</v>
+        <v>68.5</v>
       </c>
       <c r="L28" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="M28" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.2413793103448274</v>
+        <v>1.7647058823529411</v>
       </c>
     </row>
     <row r="29">
@@ -1570,43 +1582,43 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D29" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="E29" t="n">
         <v>50.0</v>
       </c>
       <c r="F29" t="n">
-        <v>600.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G29" t="n">
-        <v>600.0</v>
+        <v>550.0</v>
       </c>
       <c r="H29" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="I29" t="n">
-        <v>400.0</v>
+        <v>150.0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.0</v>
+        <v>78.5</v>
       </c>
       <c r="K29" t="n">
-        <v>50.0</v>
+        <v>43.5</v>
       </c>
       <c r="L29" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="M29" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="N29" t="n">
-        <v>2.0833333333333335</v>
+        <v>2.127659574468085</v>
       </c>
     </row>
     <row r="30">
@@ -1614,43 +1626,43 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D30" t="n">
-        <v>40.0</v>
+        <v>150.0</v>
       </c>
       <c r="E30" t="n">
-        <v>40.0</v>
+        <v>75.0</v>
       </c>
       <c r="F30" t="n">
-        <v>300.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G30" t="n">
-        <v>300.0</v>
+        <v>1350.0</v>
       </c>
       <c r="H30" t="n">
-        <v>300.0</v>
+        <v>2850.0</v>
       </c>
       <c r="I30" t="n">
-        <v>300.0</v>
+        <v>1425.0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.0</v>
+        <v>42.0</v>
       </c>
       <c r="K30" t="n">
-        <v>17.0</v>
+        <v>51.0</v>
       </c>
       <c r="L30" t="n">
-        <v>17.0</v>
+        <v>42.0</v>
       </c>
       <c r="M30" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.7391304347826086</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="31">
@@ -1658,43 +1670,43 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.0</v>
+        <v>165.0</v>
       </c>
       <c r="E31" t="n">
-        <v>65.0</v>
+        <v>82.5</v>
       </c>
       <c r="F31" t="n">
-        <v>900.0</v>
+        <v>3400.0</v>
       </c>
       <c r="G31" t="n">
-        <v>900.0</v>
+        <v>1700.0</v>
       </c>
       <c r="H31" t="n">
-        <v>1100.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I31" t="n">
-        <v>1100.0</v>
+        <v>1350.0</v>
       </c>
       <c r="J31" t="n">
-        <v>39.0</v>
+        <v>36.5</v>
       </c>
       <c r="K31" t="n">
-        <v>42.0</v>
+        <v>23.0</v>
       </c>
       <c r="L31" t="n">
-        <v>39.0</v>
+        <v>23.0</v>
       </c>
       <c r="M31" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="N31" t="n">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -1702,43 +1714,43 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D32" t="n">
-        <v>50.0</v>
+        <v>90.0</v>
       </c>
       <c r="E32" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="F32" t="n">
-        <v>400.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.0</v>
+        <v>500.0</v>
       </c>
       <c r="H32" t="n">
-        <v>600.0</v>
+        <v>700.0</v>
       </c>
       <c r="I32" t="n">
-        <v>600.0</v>
+        <v>350.0</v>
       </c>
       <c r="J32" t="n">
-        <v>47.0</v>
+        <v>41.0</v>
       </c>
       <c r="K32" t="n">
-        <v>7.0</v>
+        <v>52.0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.0</v>
+        <v>41.0</v>
       </c>
       <c r="M32" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.125</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -1746,43 +1758,43 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D33" t="n">
-        <v>115.0</v>
+        <v>110.0</v>
       </c>
       <c r="E33" t="n">
-        <v>115.0</v>
+        <v>55.0</v>
       </c>
       <c r="F33" t="n">
-        <v>3000.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G33" t="n">
-        <v>3000.0</v>
+        <v>900.0</v>
       </c>
       <c r="H33" t="n">
-        <v>2100.0</v>
+        <v>700.0</v>
       </c>
       <c r="I33" t="n">
-        <v>2100.0</v>
+        <v>350.0</v>
       </c>
       <c r="J33" t="n">
-        <v>42.0</v>
+        <v>27.5</v>
       </c>
       <c r="K33" t="n">
-        <v>31.0</v>
+        <v>38.5</v>
       </c>
       <c r="L33" t="n">
-        <v>31.0</v>
+        <v>27.5</v>
       </c>
       <c r="M33" t="n">
-        <v>34.0</v>
+        <v>22.0</v>
       </c>
       <c r="N33" t="n">
-        <v>3.3823529411764706</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34">
@@ -1790,43 +1802,43 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D34" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="E34" t="n">
-        <v>50.0</v>
+        <v>37.5</v>
       </c>
       <c r="F34" t="n">
-        <v>600.0</v>
+        <v>1350.0</v>
       </c>
       <c r="G34" t="n">
-        <v>600.0</v>
+        <v>675.0</v>
       </c>
       <c r="H34" t="n">
-        <v>400.0</v>
+        <v>1100.0</v>
       </c>
       <c r="I34" t="n">
-        <v>400.0</v>
+        <v>550.0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.0</v>
+        <v>4.5</v>
       </c>
       <c r="K34" t="n">
-        <v>50.0</v>
+        <v>17.5</v>
       </c>
       <c r="L34" t="n">
-        <v>45.0</v>
+        <v>4.5</v>
       </c>
       <c r="M34" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="N34" t="n">
-        <v>2.380952380952381</v>
+        <v>1.829268292682927</v>
       </c>
     </row>
     <row r="35">
@@ -1834,13 +1846,13 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D35" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="E35" t="n">
         <v>20.0</v>
@@ -1855,22 +1867,22 @@
         <v>100.0</v>
       </c>
       <c r="I35" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="K35" t="n">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="L35" t="n">
-        <v>16.0</v>
+        <v>48.0</v>
       </c>
       <c r="M35" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.25</v>
+        <v>0.851063829787234</v>
       </c>
     </row>
     <row r="36">
@@ -1878,43 +1890,43 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36" t="n">
         <v>1.0</v>
       </c>
       <c r="D36" t="n">
-        <v>65.0</v>
+        <v>75.0</v>
       </c>
       <c r="E36" t="n">
-        <v>65.0</v>
+        <v>75.0</v>
       </c>
       <c r="F36" t="n">
-        <v>1050.0</v>
+        <v>1350.0</v>
       </c>
       <c r="G36" t="n">
-        <v>1050.0</v>
+        <v>1350.0</v>
       </c>
       <c r="H36" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="I36" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="J36" t="n">
-        <v>12.0</v>
+        <v>40.0</v>
       </c>
       <c r="K36" t="n">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="L36" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="M36" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="N36" t="n">
-        <v>4.0625</v>
+        <v>2.34375</v>
       </c>
     </row>
     <row r="37">
@@ -1922,43 +1934,43 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
       </c>
       <c r="D37" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
       <c r="E37" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
       <c r="F37" t="n">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="G37" t="n">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="J37" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="K37" t="n">
-        <v>49.0</v>
+        <v>22.0</v>
       </c>
       <c r="L37" t="n">
-        <v>49.0</v>
+        <v>22.0</v>
       </c>
       <c r="M37" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.3043478260869565</v>
+        <v>2.2413793103448274</v>
       </c>
     </row>
     <row r="38">
@@ -1966,43 +1978,43 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
       </c>
       <c r="D38" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="E38" t="n">
-        <v>90.0</v>
+        <v>50.0</v>
       </c>
       <c r="F38" t="n">
-        <v>2000.0</v>
+        <v>400.0</v>
       </c>
       <c r="G38" t="n">
-        <v>2000.0</v>
+        <v>400.0</v>
       </c>
       <c r="H38" t="n">
-        <v>800.0</v>
+        <v>600.0</v>
       </c>
       <c r="I38" t="n">
-        <v>800.0</v>
+        <v>600.0</v>
       </c>
       <c r="J38" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="K38" t="n">
-        <v>68.0</v>
+        <v>7.0</v>
       </c>
       <c r="L38" t="n">
-        <v>36.0</v>
+        <v>7.0</v>
       </c>
       <c r="M38" t="n">
-        <v>26.0</v>
+        <v>16.0</v>
       </c>
       <c r="N38" t="n">
-        <v>3.4615384615384617</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="39">
@@ -2010,7 +2022,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" t="n">
         <v>1.0</v>
@@ -2034,19 +2046,19 @@
         <v>100.0</v>
       </c>
       <c r="J39" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="L39" t="n">
-        <v>37.0</v>
+        <v>16.0</v>
       </c>
       <c r="M39" t="n">
-        <v>26.0</v>
+        <v>16.0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.7692307692307693</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="40">
@@ -2054,43 +2066,131 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" t="n">
         <v>1.0</v>
       </c>
       <c r="D40" t="n">
-        <v>75.0</v>
+        <v>90.0</v>
       </c>
       <c r="E40" t="n">
-        <v>75.0</v>
+        <v>90.0</v>
       </c>
       <c r="F40" t="n">
-        <v>1350.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G40" t="n">
-        <v>1350.0</v>
+        <v>2000.0</v>
       </c>
       <c r="H40" t="n">
-        <v>1100.0</v>
+        <v>800.0</v>
       </c>
       <c r="I40" t="n">
-        <v>1100.0</v>
+        <v>800.0</v>
       </c>
       <c r="J40" t="n">
-        <v>9.0</v>
+        <v>36.0</v>
       </c>
       <c r="K40" t="n">
-        <v>35.0</v>
+        <v>68.0</v>
       </c>
       <c r="L40" t="n">
-        <v>9.0</v>
+        <v>36.0</v>
       </c>
       <c r="M40" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.7777777777777777</v>
+        <v>3.4615384615384617</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.2903225806451613</v>
       </c>
     </row>
   </sheetData>

--- a/E1_refereestats.xlsx
+++ b/E1_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Referee</t>
   </si>
@@ -176,115 +176,160 @@
     <t>41</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Oliver Langford</t>
+  </si>
+  <si>
+    <t>David Webb</t>
+  </si>
+  <si>
     <t>John Busby</t>
   </si>
   <si>
+    <t>Joshua Smith</t>
+  </si>
+  <si>
+    <t>Andrew Kitchen</t>
+  </si>
+  <si>
+    <t>Gavin Ward</t>
+  </si>
+  <si>
+    <t>Dean Whitestone</t>
+  </si>
+  <si>
+    <t>James Bell</t>
+  </si>
+  <si>
+    <t>Matt Donohue</t>
+  </si>
+  <si>
+    <t>Samuel Allison</t>
+  </si>
+  <si>
+    <t>Tom Nield</t>
+  </si>
+  <si>
+    <t>Stephen Martin</t>
+  </si>
+  <si>
     <t>Robert Madley</t>
   </si>
   <si>
-    <t>Oliver Langford</t>
-  </si>
-  <si>
-    <t>Gavin Ward</t>
-  </si>
-  <si>
-    <t>Joshua Smith</t>
-  </si>
-  <si>
-    <t>Matt Donohue</t>
-  </si>
-  <si>
-    <t>Andrew Kitchen</t>
-  </si>
-  <si>
     <t>Anthony Backhouse</t>
   </si>
   <si>
-    <t>David Webb</t>
-  </si>
-  <si>
-    <t>Tom Nield</t>
-  </si>
-  <si>
-    <t>Stephen Martin</t>
+    <t>Lewis Smith</t>
+  </si>
+  <si>
+    <t>James Linington</t>
+  </si>
+  <si>
+    <t>Will Finnie</t>
+  </si>
+  <si>
+    <t>Andrew Davies</t>
+  </si>
+  <si>
+    <t>Leigh Doughty</t>
+  </si>
+  <si>
+    <t>Ben Toner</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Leigh Doughty</t>
-  </si>
-  <si>
-    <t>James Bell</t>
-  </si>
-  <si>
-    <t>Lewis Smith</t>
-  </si>
-  <si>
-    <t>Andrew Davies</t>
-  </si>
-  <si>
-    <t>Dean Whitestone</t>
-  </si>
-  <si>
-    <t>Samuel Allison</t>
-  </si>
-  <si>
-    <t>James Linington</t>
-  </si>
-  <si>
-    <t>Ben Toner</t>
-  </si>
-  <si>
-    <t>Will Finnie</t>
+    <t>Thomas Bramall</t>
+  </si>
+  <si>
+    <t>Farai Hallam</t>
   </si>
   <si>
     <t>Michael Salisbury</t>
   </si>
   <si>
-    <t>Thomas Bramall</t>
-  </si>
-  <si>
     <t>Tim Robinson</t>
   </si>
   <si>
+    <t>Thomas Kirk</t>
+  </si>
+  <si>
+    <t>Darren Bond</t>
+  </si>
+  <si>
+    <t>Geoff Eltringham</t>
+  </si>
+  <si>
+    <t>Sunny Gill</t>
+  </si>
+  <si>
+    <t>Adam Herczeg</t>
+  </si>
+  <si>
+    <t>Jarred Gillett</t>
+  </si>
+  <si>
     <t>Simon Hooper</t>
   </si>
   <si>
-    <t>Sunny Gill</t>
+    <t>Tony Harrington</t>
+  </si>
+  <si>
+    <t>Stuart Attwell</t>
+  </si>
+  <si>
+    <t>Ruebyn Ricardo</t>
   </si>
   <si>
     <t>Andy Madley</t>
   </si>
   <si>
-    <t>Thomas Kirk</t>
-  </si>
-  <si>
-    <t>Darren Bond</t>
-  </si>
-  <si>
-    <t>Tony Harrington</t>
-  </si>
-  <si>
-    <t>Geoff Eltringham</t>
+    <t>Peter Bankes</t>
   </si>
   <si>
     <t>John Brooks</t>
   </si>
   <si>
+    <t>Elliot Bell</t>
+  </si>
+  <si>
+    <t>Robert Jones</t>
+  </si>
+  <si>
     <t>Craig Pawson</t>
   </si>
   <si>
-    <t>Farai Hallam</t>
-  </si>
-  <si>
     <t>Steve Martin</t>
   </si>
   <si>
     <t>Keith Stroud</t>
   </si>
   <si>
-    <t>Peter Bankes</t>
+    <t>Martin Coy</t>
   </si>
   <si>
     <t>David Coote</t>
@@ -293,10 +338,13 @@
     <t>Darren England</t>
   </si>
   <si>
-    <t>Stuart Attwell</t>
-  </si>
-  <si>
-    <t>Adam Herczeg</t>
+    <t>Samuel Barrott</t>
+  </si>
+  <si>
+    <t>Ben Speedie</t>
+  </si>
+  <si>
+    <t>Jeremy Simpson</t>
   </si>
 </sst>
 </file>
@@ -394,43 +442,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="D2" t="n">
-        <v>520.0</v>
+        <v>770.0</v>
       </c>
       <c r="E2" t="n">
-        <v>40.0</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F2" t="n">
-        <v>4850.0</v>
+        <v>8200.0</v>
       </c>
       <c r="G2" t="n">
-        <v>373.0769230769231</v>
+        <v>390.4761904761905</v>
       </c>
       <c r="H2" t="n">
-        <v>3700.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I2" t="n">
-        <v>284.61538461538464</v>
+        <v>157.14285714285714</v>
       </c>
       <c r="J2" t="n">
-        <v>47.30769230769231</v>
+        <v>23.047619047619047</v>
       </c>
       <c r="K2" t="n">
-        <v>39.0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="L2" t="n">
-        <v>46.69230769230769</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="M2" t="n">
         <v>22.0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.7687074829931972</v>
+        <v>1.6142557651991614</v>
       </c>
     </row>
     <row r="3">
@@ -438,43 +486,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" t="n">
-        <v>485.0</v>
+        <v>560.0</v>
       </c>
       <c r="E3" t="n">
-        <v>40.416666666666664</v>
+        <v>28.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5800.0</v>
+        <v>4100.0</v>
       </c>
       <c r="G3" t="n">
-        <v>483.3333333333333</v>
+        <v>205.0</v>
       </c>
       <c r="H3" t="n">
-        <v>4100.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I3" t="n">
-        <v>341.6666666666667</v>
+        <v>120.0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.166666666666664</v>
+        <v>22.1</v>
       </c>
       <c r="K3" t="n">
-        <v>41.333333333333336</v>
+        <v>28.45</v>
       </c>
       <c r="L3" t="n">
-        <v>31.75</v>
+        <v>16.9</v>
       </c>
       <c r="M3" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8653846153846154</v>
+        <v>1.3365155131264916</v>
       </c>
     </row>
     <row r="4">
@@ -482,43 +530,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="D4" t="n">
-        <v>410.0</v>
+        <v>650.0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.166666666666664</v>
+        <v>32.5</v>
       </c>
       <c r="F4" t="n">
-        <v>3300.0</v>
+        <v>5450.0</v>
       </c>
       <c r="G4" t="n">
-        <v>275.0</v>
+        <v>272.5</v>
       </c>
       <c r="H4" t="n">
         <v>3300.0</v>
       </c>
       <c r="I4" t="n">
-        <v>275.0</v>
+        <v>165.0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.333333333333336</v>
+        <v>28.05</v>
       </c>
       <c r="K4" t="n">
-        <v>35.5</v>
+        <v>22.4</v>
       </c>
       <c r="L4" t="n">
-        <v>37.916666666666664</v>
+        <v>27.75</v>
       </c>
       <c r="M4" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5471698113207548</v>
+        <v>1.5402843601895735</v>
       </c>
     </row>
     <row r="5">
@@ -526,43 +574,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="D5" t="n">
-        <v>645.0</v>
+        <v>815.0</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75</v>
+        <v>42.89473684210526</v>
       </c>
       <c r="F5" t="n">
-        <v>8775.0</v>
+        <v>8000.0</v>
       </c>
       <c r="G5" t="n">
-        <v>731.25</v>
+        <v>421.05263157894734</v>
       </c>
       <c r="H5" t="n">
-        <v>7050.0</v>
+        <v>4550.0</v>
       </c>
       <c r="I5" t="n">
-        <v>587.5</v>
+        <v>239.47368421052633</v>
       </c>
       <c r="J5" t="n">
-        <v>39.416666666666664</v>
+        <v>19.31578947368421</v>
       </c>
       <c r="K5" t="n">
-        <v>56.5</v>
+        <v>24.894736842105264</v>
       </c>
       <c r="L5" t="n">
-        <v>32.666666666666664</v>
+        <v>21.36842105263158</v>
       </c>
       <c r="M5" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.388888888888889</v>
+        <v>1.9591346153846154</v>
       </c>
     </row>
     <row r="6">
@@ -570,43 +618,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="D6" t="n">
-        <v>575.0</v>
+        <v>675.0</v>
       </c>
       <c r="E6" t="n">
-        <v>47.916666666666664</v>
+        <v>37.5</v>
       </c>
       <c r="F6" t="n">
-        <v>6100.0</v>
+        <v>7950.0</v>
       </c>
       <c r="G6" t="n">
-        <v>508.3333333333333</v>
+        <v>441.6666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>5150.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I6" t="n">
-        <v>429.1666666666667</v>
+        <v>194.44444444444446</v>
       </c>
       <c r="J6" t="n">
-        <v>32.583333333333336</v>
+        <v>28.72222222222222</v>
       </c>
       <c r="K6" t="n">
-        <v>43.0</v>
+        <v>25.055555555555557</v>
       </c>
       <c r="L6" t="n">
-        <v>35.833333333333336</v>
+        <v>29.72222222222222</v>
       </c>
       <c r="M6" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1296296296296298</v>
+        <v>1.4610389610389611</v>
       </c>
     </row>
     <row r="7">
@@ -614,43 +662,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="D7" t="n">
-        <v>510.0</v>
+        <v>890.0</v>
       </c>
       <c r="E7" t="n">
-        <v>42.5</v>
+        <v>49.44444444444444</v>
       </c>
       <c r="F7" t="n">
-        <v>6625.0</v>
+        <v>11575.0</v>
       </c>
       <c r="G7" t="n">
-        <v>552.0833333333334</v>
+        <v>643.0555555555555</v>
       </c>
       <c r="H7" t="n">
-        <v>7075.0</v>
+        <v>6650.0</v>
       </c>
       <c r="I7" t="n">
-        <v>589.5833333333334</v>
+        <v>369.44444444444446</v>
       </c>
       <c r="J7" t="n">
-        <v>24.25</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="K7" t="n">
-        <v>41.916666666666664</v>
+        <v>34.72222222222222</v>
       </c>
       <c r="L7" t="n">
-        <v>28.833333333333332</v>
+        <v>20.61111111111111</v>
       </c>
       <c r="M7" t="n">
         <v>22.0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8681318681318682</v>
+        <v>2.1601941747572817</v>
       </c>
     </row>
     <row r="8">
@@ -658,43 +706,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C8" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="D8" t="n">
-        <v>465.0</v>
+        <v>655.0</v>
       </c>
       <c r="E8" t="n">
-        <v>42.27272727272727</v>
+        <v>36.388888888888886</v>
       </c>
       <c r="F8" t="n">
-        <v>6250.0</v>
+        <v>6700.0</v>
       </c>
       <c r="G8" t="n">
-        <v>568.1818181818181</v>
+        <v>372.22222222222223</v>
       </c>
       <c r="H8" t="n">
-        <v>3500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I8" t="n">
-        <v>318.1818181818182</v>
+        <v>222.22222222222223</v>
       </c>
       <c r="J8" t="n">
-        <v>47.0</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="K8" t="n">
-        <v>41.0</v>
+        <v>27.61111111111111</v>
       </c>
       <c r="L8" t="n">
-        <v>48.63636363636363</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="M8" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.7222222222222223</v>
+        <v>1.5707434052757794</v>
       </c>
     </row>
     <row r="9">
@@ -702,43 +750,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C9" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="D9" t="n">
-        <v>455.0</v>
+        <v>880.0</v>
       </c>
       <c r="E9" t="n">
-        <v>41.36363636363637</v>
+        <v>48.888888888888886</v>
       </c>
       <c r="F9" t="n">
-        <v>4300.0</v>
+        <v>12450.0</v>
       </c>
       <c r="G9" t="n">
-        <v>390.90909090909093</v>
+        <v>691.6666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>4300.0</v>
+        <v>5900.0</v>
       </c>
       <c r="I9" t="n">
-        <v>390.90909090909093</v>
+        <v>327.77777777777777</v>
       </c>
       <c r="J9" t="n">
-        <v>30.818181818181817</v>
+        <v>16.0</v>
       </c>
       <c r="K9" t="n">
-        <v>40.27272727272727</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="L9" t="n">
-        <v>30.818181818181817</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="M9" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.136150234741784</v>
+        <v>2.100238663484487</v>
       </c>
     </row>
     <row r="10">
@@ -746,43 +794,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="D10" t="n">
-        <v>370.0</v>
+        <v>795.0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.63636363636363</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="F10" t="n">
-        <v>3300.0</v>
+        <v>9075.0</v>
       </c>
       <c r="G10" t="n">
-        <v>300.0</v>
+        <v>504.1666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>2400.0</v>
+        <v>7075.0</v>
       </c>
       <c r="I10" t="n">
-        <v>218.1818181818182</v>
+        <v>393.05555555555554</v>
       </c>
       <c r="J10" t="n">
-        <v>40.18181818181818</v>
+        <v>16.166666666666668</v>
       </c>
       <c r="K10" t="n">
-        <v>51.72727272727273</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="L10" t="n">
-        <v>30.727272727272727</v>
+        <v>14.555555555555555</v>
       </c>
       <c r="M10" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.608695652173913</v>
+        <v>1.9110576923076923</v>
       </c>
     </row>
     <row r="11">
@@ -790,43 +838,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C11" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="D11" t="n">
-        <v>470.0</v>
+        <v>675.0</v>
       </c>
       <c r="E11" t="n">
-        <v>47.0</v>
+        <v>39.705882352941174</v>
       </c>
       <c r="F11" t="n">
-        <v>5300.0</v>
+        <v>7100.0</v>
       </c>
       <c r="G11" t="n">
-        <v>530.0</v>
+        <v>417.6470588235294</v>
       </c>
       <c r="H11" t="n">
-        <v>4100.0</v>
+        <v>3900.0</v>
       </c>
       <c r="I11" t="n">
-        <v>410.0</v>
+        <v>229.41176470588235</v>
       </c>
       <c r="J11" t="n">
-        <v>51.9</v>
+        <v>13.823529411764707</v>
       </c>
       <c r="K11" t="n">
-        <v>40.9</v>
+        <v>16.41176470588235</v>
       </c>
       <c r="L11" t="n">
-        <v>36.9</v>
+        <v>10.941176470588236</v>
       </c>
       <c r="M11" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.8503937007874016</v>
+        <v>1.790450928381963</v>
       </c>
     </row>
     <row r="12">
@@ -834,43 +882,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C12" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="D12" t="n">
-        <v>380.0</v>
+        <v>725.0</v>
       </c>
       <c r="E12" t="n">
-        <v>38.0</v>
+        <v>42.64705882352941</v>
       </c>
       <c r="F12" t="n">
-        <v>4700.0</v>
+        <v>7950.0</v>
       </c>
       <c r="G12" t="n">
-        <v>470.0</v>
+        <v>467.6470588235294</v>
       </c>
       <c r="H12" t="n">
-        <v>5400.0</v>
+        <v>4100.0</v>
       </c>
       <c r="I12" t="n">
-        <v>540.0</v>
+        <v>241.1764705882353</v>
       </c>
       <c r="J12" t="n">
-        <v>19.4</v>
+        <v>30.529411764705884</v>
       </c>
       <c r="K12" t="n">
-        <v>28.6</v>
+        <v>24.058823529411764</v>
       </c>
       <c r="L12" t="n">
-        <v>28.6</v>
+        <v>21.705882352941178</v>
       </c>
       <c r="M12" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.4232209737827715</v>
+        <v>1.821608040201005</v>
       </c>
     </row>
     <row r="13">
@@ -878,43 +926,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C13" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="D13" t="n">
-        <v>290.0</v>
+        <v>710.0</v>
       </c>
       <c r="E13" t="n">
-        <v>29.0</v>
+        <v>41.76470588235294</v>
       </c>
       <c r="F13" t="n">
-        <v>1900.0</v>
+        <v>9100.0</v>
       </c>
       <c r="G13" t="n">
-        <v>190.0</v>
+        <v>535.2941176470588</v>
       </c>
       <c r="H13" t="n">
-        <v>1900.0</v>
+        <v>5200.0</v>
       </c>
       <c r="I13" t="n">
-        <v>190.0</v>
+        <v>305.88235294117646</v>
       </c>
       <c r="J13" t="n">
-        <v>54.2</v>
+        <v>11.411764705882353</v>
       </c>
       <c r="K13" t="n">
-        <v>19.0</v>
+        <v>11.411764705882353</v>
       </c>
       <c r="L13" t="n">
-        <v>36.1</v>
+        <v>11.411764705882353</v>
       </c>
       <c r="M13" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.355140186915888</v>
+        <v>1.6099773242630386</v>
       </c>
     </row>
     <row r="14">
@@ -922,43 +970,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="D14" t="n">
-        <v>470.0</v>
+        <v>585.0</v>
       </c>
       <c r="E14" t="n">
-        <v>47.0</v>
+        <v>41.785714285714285</v>
       </c>
       <c r="F14" t="n">
-        <v>5700.0</v>
+        <v>6800.0</v>
       </c>
       <c r="G14" t="n">
-        <v>570.0</v>
+        <v>485.7142857142857</v>
       </c>
       <c r="H14" t="n">
-        <v>4800.0</v>
+        <v>3200.0</v>
       </c>
       <c r="I14" t="n">
-        <v>480.0</v>
+        <v>228.57142857142858</v>
       </c>
       <c r="J14" t="n">
-        <v>39.4</v>
+        <v>26.214285714285715</v>
       </c>
       <c r="K14" t="n">
-        <v>51.2</v>
+        <v>33.142857142857146</v>
       </c>
       <c r="L14" t="n">
-        <v>32.5</v>
+        <v>24.928571428571427</v>
       </c>
       <c r="M14" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.9665271966527196</v>
+        <v>1.8810289389067525</v>
       </c>
     </row>
     <row r="15">
@@ -966,43 +1014,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C15" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="D15" t="n">
-        <v>515.0</v>
+        <v>560.0</v>
       </c>
       <c r="E15" t="n">
-        <v>51.5</v>
+        <v>40.0</v>
       </c>
       <c r="F15" t="n">
-        <v>7650.0</v>
+        <v>5400.0</v>
       </c>
       <c r="G15" t="n">
-        <v>765.0</v>
+        <v>385.7142857142857</v>
       </c>
       <c r="H15" t="n">
-        <v>5900.0</v>
+        <v>4300.0</v>
       </c>
       <c r="I15" t="n">
-        <v>590.0</v>
+        <v>307.14285714285717</v>
       </c>
       <c r="J15" t="n">
-        <v>28.8</v>
+        <v>24.214285714285715</v>
       </c>
       <c r="K15" t="n">
-        <v>32.8</v>
+        <v>31.642857142857142</v>
       </c>
       <c r="L15" t="n">
-        <v>21.0</v>
+        <v>24.214285714285715</v>
       </c>
       <c r="M15" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.2489082969432315</v>
+        <v>2.0216606498194944</v>
       </c>
     </row>
     <row r="16">
@@ -1010,43 +1058,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="D16" t="n">
-        <v>290.0</v>
+        <v>415.0</v>
       </c>
       <c r="E16" t="n">
-        <v>32.22222222222222</v>
+        <v>31.923076923076923</v>
       </c>
       <c r="F16" t="n">
-        <v>2300.0</v>
+        <v>2800.0</v>
       </c>
       <c r="G16" t="n">
-        <v>255.55555555555554</v>
+        <v>215.3846153846154</v>
       </c>
       <c r="H16" t="n">
-        <v>2100.0</v>
+        <v>1900.0</v>
       </c>
       <c r="I16" t="n">
-        <v>233.33333333333334</v>
+        <v>146.15384615384616</v>
       </c>
       <c r="J16" t="n">
-        <v>38.77777777777778</v>
+        <v>24.846153846153847</v>
       </c>
       <c r="K16" t="n">
-        <v>43.666666666666664</v>
+        <v>26.615384615384617</v>
       </c>
       <c r="L16" t="n">
-        <v>36.111111111111114</v>
+        <v>23.0</v>
       </c>
       <c r="M16" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.3942307692307692</v>
+        <v>1.4716312056737588</v>
       </c>
     </row>
     <row r="17">
@@ -1054,43 +1102,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C17" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D17" t="n">
-        <v>310.0</v>
+        <v>440.0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.44444444444444</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F17" t="n">
-        <v>2300.0</v>
+        <v>4500.0</v>
       </c>
       <c r="G17" t="n">
-        <v>255.55555555555554</v>
+        <v>375.0</v>
       </c>
       <c r="H17" t="n">
-        <v>2100.0</v>
+        <v>900.0</v>
       </c>
       <c r="I17" t="n">
-        <v>233.33333333333334</v>
+        <v>75.0</v>
       </c>
       <c r="J17" t="n">
-        <v>28.555555555555557</v>
+        <v>24.75</v>
       </c>
       <c r="K17" t="n">
-        <v>50.888888888888886</v>
+        <v>22.833333333333332</v>
       </c>
       <c r="L17" t="n">
-        <v>37.666666666666664</v>
+        <v>17.25</v>
       </c>
       <c r="M17" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.6577540106951871</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -1098,43 +1146,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C18" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D18" t="n">
-        <v>360.0</v>
+        <v>490.0</v>
       </c>
       <c r="E18" t="n">
-        <v>40.0</v>
+        <v>40.833333333333336</v>
       </c>
       <c r="F18" t="n">
-        <v>3600.0</v>
+        <v>4700.0</v>
       </c>
       <c r="G18" t="n">
-        <v>400.0</v>
+        <v>391.6666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>4000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I18" t="n">
-        <v>444.44444444444446</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="J18" t="n">
-        <v>39.333333333333336</v>
+        <v>13.916666666666666</v>
       </c>
       <c r="K18" t="n">
-        <v>55.22222222222222</v>
+        <v>21.0</v>
       </c>
       <c r="L18" t="n">
-        <v>48.22222222222222</v>
+        <v>13.0</v>
       </c>
       <c r="M18" t="n">
         <v>21.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.8274111675126903</v>
+        <v>1.9291338582677164</v>
       </c>
     </row>
     <row r="19">
@@ -1142,43 +1190,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C19" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D19" t="n">
-        <v>330.0</v>
+        <v>390.0</v>
       </c>
       <c r="E19" t="n">
-        <v>47.142857142857146</v>
+        <v>32.5</v>
       </c>
       <c r="F19" t="n">
-        <v>3800.0</v>
+        <v>2900.0</v>
       </c>
       <c r="G19" t="n">
-        <v>542.8571428571429</v>
+        <v>241.66666666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>3900.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I19" t="n">
-        <v>557.1428571428571</v>
+        <v>125.0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.57142857142857</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="K19" t="n">
-        <v>39.857142857142854</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="L19" t="n">
-        <v>26.571428571428573</v>
+        <v>26.916666666666668</v>
       </c>
       <c r="M19" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.9879518072289157</v>
+        <v>1.5918367346938775</v>
       </c>
     </row>
     <row r="20">
@@ -1186,43 +1234,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C20" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="D20" t="n">
-        <v>310.0</v>
+        <v>605.0</v>
       </c>
       <c r="E20" t="n">
-        <v>51.666666666666664</v>
+        <v>50.416666666666664</v>
       </c>
       <c r="F20" t="n">
-        <v>3800.0</v>
+        <v>8650.0</v>
       </c>
       <c r="G20" t="n">
-        <v>633.3333333333334</v>
+        <v>720.8333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>2100.0</v>
+        <v>4200.0</v>
       </c>
       <c r="I20" t="n">
         <v>350.0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.0</v>
+        <v>29.833333333333332</v>
       </c>
       <c r="K20" t="n">
-        <v>51.166666666666664</v>
+        <v>39.666666666666664</v>
       </c>
       <c r="L20" t="n">
-        <v>40.0</v>
+        <v>24.083333333333332</v>
       </c>
       <c r="M20" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.2627737226277373</v>
+        <v>2.1006944444444446</v>
       </c>
     </row>
     <row r="21">
@@ -1230,43 +1278,43 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C21" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D21" t="n">
-        <v>315.0</v>
+        <v>475.0</v>
       </c>
       <c r="E21" t="n">
-        <v>52.5</v>
+        <v>47.5</v>
       </c>
       <c r="F21" t="n">
-        <v>3850.0</v>
+        <v>5650.0</v>
       </c>
       <c r="G21" t="n">
-        <v>641.6666666666666</v>
+        <v>565.0</v>
       </c>
       <c r="H21" t="n">
         <v>2400.0</v>
       </c>
       <c r="I21" t="n">
-        <v>400.0</v>
+        <v>240.0</v>
       </c>
       <c r="J21" t="n">
-        <v>54.5</v>
+        <v>23.8</v>
       </c>
       <c r="K21" t="n">
-        <v>67.16666666666667</v>
+        <v>33.2</v>
       </c>
       <c r="L21" t="n">
-        <v>50.166666666666664</v>
+        <v>23.0</v>
       </c>
       <c r="M21" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.0588235294117645</v>
+        <v>1.9076305220883534</v>
       </c>
     </row>
     <row r="22">
@@ -1274,43 +1322,43 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C22" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D22" t="n">
-        <v>280.0</v>
+        <v>290.0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.666666666666664</v>
+        <v>29.0</v>
       </c>
       <c r="F22" t="n">
-        <v>3000.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G22" t="n">
-        <v>500.0</v>
+        <v>190.0</v>
       </c>
       <c r="H22" t="n">
-        <v>2500.0</v>
+        <v>1900.0</v>
       </c>
       <c r="I22" t="n">
-        <v>416.6666666666667</v>
+        <v>190.0</v>
       </c>
       <c r="J22" t="n">
-        <v>27.833333333333332</v>
+        <v>54.2</v>
       </c>
       <c r="K22" t="n">
-        <v>42.0</v>
+        <v>19.0</v>
       </c>
       <c r="L22" t="n">
-        <v>26.0</v>
+        <v>36.1</v>
       </c>
       <c r="M22" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.028985507246377</v>
+        <v>1.355140186915888</v>
       </c>
     </row>
     <row r="23">
@@ -1318,43 +1366,43 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C23" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D23" t="n">
-        <v>155.0</v>
+        <v>330.0</v>
       </c>
       <c r="E23" t="n">
-        <v>38.75</v>
+        <v>41.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1850.0</v>
+        <v>3300.0</v>
       </c>
       <c r="G23" t="n">
-        <v>462.5</v>
+        <v>412.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1400.0</v>
+        <v>600.0</v>
       </c>
       <c r="I23" t="n">
-        <v>350.0</v>
+        <v>75.0</v>
       </c>
       <c r="J23" t="n">
-        <v>35.0</v>
+        <v>16.125</v>
       </c>
       <c r="K23" t="n">
-        <v>46.0</v>
+        <v>20.75</v>
       </c>
       <c r="L23" t="n">
-        <v>32.5</v>
+        <v>16.0</v>
       </c>
       <c r="M23" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.648936170212766</v>
+        <v>1.9642857142857142</v>
       </c>
     </row>
     <row r="24">
@@ -1362,43 +1410,43 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D24" t="n">
-        <v>155.0</v>
+        <v>235.0</v>
       </c>
       <c r="E24" t="n">
-        <v>38.75</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="F24" t="n">
-        <v>1650.0</v>
+        <v>1950.0</v>
       </c>
       <c r="G24" t="n">
-        <v>412.5</v>
+        <v>325.0</v>
       </c>
       <c r="H24" t="n">
-        <v>600.0</v>
+        <v>100.0</v>
       </c>
       <c r="I24" t="n">
-        <v>150.0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="J24" t="n">
-        <v>32.25</v>
+        <v>6.0</v>
       </c>
       <c r="K24" t="n">
-        <v>41.5</v>
+        <v>0.0</v>
       </c>
       <c r="L24" t="n">
-        <v>32.0</v>
+        <v>6.0</v>
       </c>
       <c r="M24" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.9375</v>
+        <v>1.4968152866242037</v>
       </c>
     </row>
     <row r="25">
@@ -1406,43 +1454,43 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C25" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D25" t="n">
-        <v>140.0</v>
+        <v>175.0</v>
       </c>
       <c r="E25" t="n">
-        <v>46.666666666666664</v>
+        <v>35.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1500.0</v>
+        <v>1850.0</v>
       </c>
       <c r="G25" t="n">
-        <v>500.0</v>
+        <v>370.0</v>
       </c>
       <c r="H25" t="n">
-        <v>1100.0</v>
+        <v>300.0</v>
       </c>
       <c r="I25" t="n">
-        <v>366.6666666666667</v>
+        <v>60.0</v>
       </c>
       <c r="J25" t="n">
-        <v>61.666666666666664</v>
+        <v>27.8</v>
       </c>
       <c r="K25" t="n">
-        <v>37.333333333333336</v>
+        <v>36.2</v>
       </c>
       <c r="L25" t="n">
-        <v>37.333333333333336</v>
+        <v>25.8</v>
       </c>
       <c r="M25" t="n">
         <v>24.0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.8918918918918919</v>
+        <v>1.4462809917355373</v>
       </c>
     </row>
     <row r="26">
@@ -1450,43 +1498,43 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C26" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D26" t="n">
-        <v>150.0</v>
+        <v>200.0</v>
       </c>
       <c r="E26" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1600.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G26" t="n">
-        <v>533.3333333333334</v>
+        <v>420.0</v>
       </c>
       <c r="H26" t="n">
-        <v>1400.0</v>
+        <v>1100.0</v>
       </c>
       <c r="I26" t="n">
-        <v>466.6666666666667</v>
+        <v>220.0</v>
       </c>
       <c r="J26" t="n">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.0</v>
+        <v>22.4</v>
       </c>
       <c r="L26" t="n">
-        <v>26.333333333333332</v>
+        <v>22.4</v>
       </c>
       <c r="M26" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.3076923076923075</v>
+        <v>1.5151515151515151</v>
       </c>
     </row>
     <row r="27">
@@ -1494,43 +1542,43 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C27" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D27" t="n">
-        <v>100.0</v>
+        <v>190.0</v>
       </c>
       <c r="E27" t="n">
-        <v>33.333333333333336</v>
+        <v>47.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1100.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G27" t="n">
-        <v>366.6666666666667</v>
+        <v>525.0</v>
       </c>
       <c r="H27" t="n">
-        <v>900.0</v>
+        <v>300.0</v>
       </c>
       <c r="I27" t="n">
-        <v>300.0</v>
+        <v>75.0</v>
       </c>
       <c r="J27" t="n">
-        <v>30.333333333333332</v>
+        <v>39.25</v>
       </c>
       <c r="K27" t="n">
-        <v>31.666666666666668</v>
+        <v>21.75</v>
       </c>
       <c r="L27" t="n">
-        <v>31.666666666666668</v>
+        <v>21.5</v>
       </c>
       <c r="M27" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.5384615384615385</v>
+        <v>2.043010752688172</v>
       </c>
     </row>
     <row r="28">
@@ -1538,43 +1586,43 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.0</v>
+        <v>230.0</v>
       </c>
       <c r="E28" t="n">
-        <v>45.0</v>
+        <v>57.5</v>
       </c>
       <c r="F28" t="n">
-        <v>900.0</v>
+        <v>3300.0</v>
       </c>
       <c r="G28" t="n">
-        <v>450.0</v>
+        <v>825.0</v>
       </c>
       <c r="H28" t="n">
-        <v>400.0</v>
+        <v>2850.0</v>
       </c>
       <c r="I28" t="n">
-        <v>200.0</v>
+        <v>712.5</v>
       </c>
       <c r="J28" t="n">
-        <v>42.0</v>
+        <v>21.0</v>
       </c>
       <c r="K28" t="n">
-        <v>68.5</v>
+        <v>25.5</v>
       </c>
       <c r="L28" t="n">
-        <v>42.0</v>
+        <v>21.0</v>
       </c>
       <c r="M28" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.7647058823529411</v>
+        <v>2.6436781609195403</v>
       </c>
     </row>
     <row r="29">
@@ -1582,43 +1630,43 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C29" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D29" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3100.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>775.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="I29" t="n">
         <v>100.0</v>
       </c>
-      <c r="E29" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1100.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>550.0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>150.0</v>
-      </c>
       <c r="J29" t="n">
-        <v>78.5</v>
+        <v>11.25</v>
       </c>
       <c r="K29" t="n">
-        <v>43.5</v>
+        <v>12.5</v>
       </c>
       <c r="L29" t="n">
-        <v>43.0</v>
+        <v>11.25</v>
       </c>
       <c r="M29" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N29" t="n">
-        <v>2.127659574468085</v>
+        <v>2.6436781609195403</v>
       </c>
     </row>
     <row r="30">
@@ -1626,43 +1674,43 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D30" t="n">
-        <v>150.0</v>
+        <v>120.0</v>
       </c>
       <c r="E30" t="n">
-        <v>75.0</v>
+        <v>30.0</v>
       </c>
       <c r="F30" t="n">
-        <v>2700.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G30" t="n">
-        <v>1350.0</v>
+        <v>275.0</v>
       </c>
       <c r="H30" t="n">
-        <v>2850.0</v>
+        <v>900.0</v>
       </c>
       <c r="I30" t="n">
-        <v>1425.0</v>
+        <v>225.0</v>
       </c>
       <c r="J30" t="n">
-        <v>42.0</v>
+        <v>22.75</v>
       </c>
       <c r="K30" t="n">
-        <v>51.0</v>
+        <v>23.75</v>
       </c>
       <c r="L30" t="n">
-        <v>42.0</v>
+        <v>23.75</v>
       </c>
       <c r="M30" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="N30" t="n">
-        <v>3.3333333333333335</v>
+        <v>1.2244897959183674</v>
       </c>
     </row>
     <row r="31">
@@ -1670,43 +1718,43 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C31" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D31" t="n">
-        <v>165.0</v>
+        <v>155.0</v>
       </c>
       <c r="E31" t="n">
-        <v>82.5</v>
+        <v>38.75</v>
       </c>
       <c r="F31" t="n">
-        <v>3400.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G31" t="n">
-        <v>1700.0</v>
+        <v>275.0</v>
       </c>
       <c r="H31" t="n">
-        <v>2700.0</v>
+        <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>1350.0</v>
+        <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>36.5</v>
+        <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.0</v>
+        <v>1.8235294117647058</v>
       </c>
     </row>
     <row r="32">
@@ -1714,43 +1762,43 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D32" t="n">
-        <v>90.0</v>
+        <v>70.0</v>
       </c>
       <c r="E32" t="n">
-        <v>45.0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="F32" t="n">
-        <v>1000.0</v>
+        <v>200.0</v>
       </c>
       <c r="G32" t="n">
-        <v>500.0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>700.0</v>
+        <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>350.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="L32" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="M32" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="N32" t="n">
-        <v>2.0</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -1758,43 +1806,43 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D33" t="n">
-        <v>110.0</v>
+        <v>150.0</v>
       </c>
       <c r="E33" t="n">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
       <c r="F33" t="n">
-        <v>1800.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G33" t="n">
-        <v>900.0</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>700.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I33" t="n">
-        <v>350.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J33" t="n">
-        <v>27.5</v>
+        <v>40.0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.5</v>
+        <v>30.0</v>
       </c>
       <c r="L33" t="n">
-        <v>27.5</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="M33" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.5</v>
+        <v>2.3076923076923075</v>
       </c>
     </row>
     <row r="34">
@@ -1802,43 +1850,43 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D34" t="n">
-        <v>75.0</v>
+        <v>205.0</v>
       </c>
       <c r="E34" t="n">
-        <v>37.5</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="F34" t="n">
-        <v>1350.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G34" t="n">
-        <v>675.0</v>
+        <v>1266.6666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1100.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I34" t="n">
-        <v>550.0</v>
+        <v>900.0</v>
       </c>
       <c r="J34" t="n">
-        <v>4.5</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="K34" t="n">
-        <v>17.5</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="M34" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.829268292682927</v>
+        <v>2.6973684210526314</v>
       </c>
     </row>
     <row r="35">
@@ -1846,43 +1894,43 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C35" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D35" t="n">
-        <v>40.0</v>
+        <v>160.0</v>
       </c>
       <c r="E35" t="n">
-        <v>20.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="H35" t="n">
         <v>100.0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J35" t="n">
-        <v>18.0</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="K35" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="L35" t="n">
-        <v>48.0</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="M35" t="n">
         <v>23.0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.851063829787234</v>
+        <v>2.2535211267605635</v>
       </c>
     </row>
     <row r="36">
@@ -1890,43 +1938,43 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D36" t="n">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="E36" t="n">
-        <v>75.0</v>
+        <v>25.0</v>
       </c>
       <c r="F36" t="n">
-        <v>1350.0</v>
+        <v>400.0</v>
       </c>
       <c r="G36" t="n">
-        <v>1350.0</v>
+        <v>200.0</v>
       </c>
       <c r="H36" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="L36" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="N36" t="n">
-        <v>2.34375</v>
+        <v>1.2195121951219512</v>
       </c>
     </row>
     <row r="37">
@@ -1934,43 +1982,43 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.0</v>
+        <v>90.0</v>
       </c>
       <c r="E37" t="n">
-        <v>65.0</v>
+        <v>45.0</v>
       </c>
       <c r="F37" t="n">
         <v>900.0</v>
       </c>
       <c r="G37" t="n">
-        <v>900.0</v>
+        <v>450.0</v>
       </c>
       <c r="H37" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
       <c r="I37" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="J37" t="n">
-        <v>48.0</v>
+        <v>19.0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="L37" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="M37" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.2413793103448274</v>
+        <v>1.7647058823529411</v>
       </c>
     </row>
     <row r="38">
@@ -1978,43 +2026,43 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D38" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="E38" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F38" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="H38" t="n">
         <v>600.0</v>
       </c>
       <c r="I38" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="J38" t="n">
-        <v>47.0</v>
+        <v>23.5</v>
       </c>
       <c r="K38" t="n">
-        <v>7.0</v>
+        <v>3.5</v>
       </c>
       <c r="L38" t="n">
-        <v>7.0</v>
+        <v>3.5</v>
       </c>
       <c r="M38" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="N38" t="n">
-        <v>3.125</v>
+        <v>2.3529411764705883</v>
       </c>
     </row>
     <row r="39">
@@ -2022,43 +2070,43 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D39" t="n">
-        <v>20.0</v>
+        <v>110.0</v>
       </c>
       <c r="E39" t="n">
-        <v>20.0</v>
+        <v>55.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="H39" t="n">
-        <v>100.0</v>
+        <v>700.0</v>
       </c>
       <c r="I39" t="n">
-        <v>100.0</v>
+        <v>350.0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>27.5</v>
       </c>
       <c r="K39" t="n">
-        <v>16.0</v>
+        <v>38.5</v>
       </c>
       <c r="L39" t="n">
-        <v>16.0</v>
+        <v>27.5</v>
       </c>
       <c r="M39" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="40">
@@ -2066,43 +2114,43 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N40" t="n">
         <v>1.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.4615384615384617</v>
       </c>
     </row>
     <row r="41">
@@ -2110,43 +2158,43 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D41" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="E41" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
       </c>
       <c r="L41" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="M41" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.7692307692307693</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="42">
@@ -2154,43 +2202,395 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>675.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.829268292682927</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="n">
         <v>1.0</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="J43" t="n">
         <v>40.0</v>
       </c>
-      <c r="E42" t="n">
+      <c r="K43" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.34375</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.2413793103448274</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.1818181818181817</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.4615384615384617</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.5151515151515151</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D49" t="n">
         <v>40.0</v>
       </c>
-      <c r="F42" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.2903225806451613</v>
+      <c r="E49" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.4814814814814814</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.3448275862068966</v>
       </c>
     </row>
   </sheetData>
